--- a/mzzb.xlsx
+++ b/mzzb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\mzzbscore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE4413-9A3E-4860-B704-7D787AD8D14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E73DF-E13F-4BD5-868F-9AF46F51CC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26190" yWindow="4455" windowWidth="17970" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本季" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
+  <si>
+    <t>2025年XX月新番X期评分（数据截止日期XXXX年XX月XX日）</t>
+  </si>
   <si>
     <t>原名</t>
   </si>
@@ -115,8 +118,502 @@
     <t>Filmarks_url</t>
   </si>
   <si>
-    <t>XXXX年XX月新番X期评分（数据截止日期XXXX年XX月XX日）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>薬屋のひとりごと 第2期</t>
+  </si>
+  <si>
+    <t>Kusuriya no Hitorigoto 2nd Season</t>
+  </si>
+  <si>
+    <t>俺だけレベルアップな件 Season 2 -Arise from the Shadow-</t>
+  </si>
+  <si>
+    <t>Ore dake Level Up na Ken: Season 2 - Arise from the Shadow</t>
+  </si>
+  <si>
+    <t>Ore dake Level Up na Ken Season 2: Arise from the Shadow</t>
+  </si>
+  <si>
+    <t>Re:ゼロから始める異世界生活 3rd season 襲擊編</t>
+  </si>
+  <si>
+    <t>Re:Zero kara Hajimeru Isekai Seikatsu 3rd Season</t>
+  </si>
+  <si>
+    <t>Re:ゼロから始める異世界生活 3rd season 襲撃編</t>
+  </si>
+  <si>
+    <t>anilist放送日期不存在</t>
+  </si>
+  <si>
+    <t>メダリスト</t>
+  </si>
+  <si>
+    <t>Medalist</t>
+  </si>
+  <si>
+    <t>魔法つかいプリキュア！！～MIRAI DAYS～</t>
+  </si>
+  <si>
+    <t>Mahoutsukai Precure!! MIRAI DAYS</t>
+  </si>
+  <si>
+    <t>Mahoutsukai Precure!! Mirai Days</t>
+  </si>
+  <si>
+    <t>BanG Dream! Ave Mujica</t>
+  </si>
+  <si>
+    <t>君のことが大大大大大好きな100人の彼女 第2期</t>
+  </si>
+  <si>
+    <t>Kimi no Koto ga Dai Dai Dai Dai Daisuki na 100-nin no Kanojo 2nd Season</t>
+  </si>
+  <si>
+    <t>Kimi no Koto ga Daidaidaidaidaisuki na 100-nin no Kanojo 2nd Season</t>
+  </si>
+  <si>
+    <t>ダンジョンに出会いを求めるのは間違っているだろうかⅤ 豊穣の女神篇</t>
+  </si>
+  <si>
+    <t>Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka V: Houjou no Megami-hen</t>
+  </si>
+  <si>
+    <t>bangumi放送日期不存在</t>
+  </si>
+  <si>
+    <t>アオのハコ</t>
+  </si>
+  <si>
+    <t>Ao no Hako</t>
+  </si>
+  <si>
+    <t>Dr.STONE SCIENCE FUTURE</t>
+  </si>
+  <si>
+    <t>Dr. STONE: SCIENCE FUTURE</t>
+  </si>
+  <si>
+    <t>Dr. Stone: Science Future</t>
+  </si>
+  <si>
+    <t>BEASTARS FINAL SEASON Part1</t>
+  </si>
+  <si>
+    <t>BEASTARS FINAL SEASON Part 1</t>
+  </si>
+  <si>
+    <t>Beastars Final Season</t>
+  </si>
+  <si>
+    <t>地縛少年花子くん２</t>
+  </si>
+  <si>
+    <t>Jibaku Shounen Hanako-kun 2</t>
+  </si>
+  <si>
+    <t>チ。 ―地球の運動について―</t>
+  </si>
+  <si>
+    <t>Chi. Chikyuu no Undou ni Tsuite</t>
+  </si>
+  <si>
+    <t>ドラゴンボールDAIMA</t>
+  </si>
+  <si>
+    <t>Dragon Ball DAIMA</t>
+  </si>
+  <si>
+    <t>Dragon Ball Daima</t>
+  </si>
+  <si>
+    <t>花は咲く、修羅の如く</t>
+  </si>
+  <si>
+    <t>Hana wa Saku, Shura no Gotoku</t>
+  </si>
+  <si>
+    <t>Rurouni Kenshin: Meiji Kenkaku Romantan - Kyoto Douran</t>
+  </si>
+  <si>
+    <t>るろうに剣心 -明治剣客浪漫譚-  京都動乱</t>
+  </si>
+  <si>
+    <t>シャングリラ・フロンティア 2nd season</t>
+  </si>
+  <si>
+    <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～ 2nd season</t>
+  </si>
+  <si>
+    <t>Shangri-La Frontier 2nd Season</t>
+  </si>
+  <si>
+    <t>Shangri-La Frontier: Kusoge Hunter, Kamige ni Idoman to su 2nd Season</t>
+  </si>
+  <si>
+    <t>わたしの幸せな結婚 第二期</t>
+  </si>
+  <si>
+    <t>Watashi no Shiawase na Kekkon 2nd Season</t>
+  </si>
+  <si>
+    <t>悪役令嬢転生おじさん</t>
+  </si>
+  <si>
+    <t>Akuyaku Reijou Tensei Oji-san</t>
+  </si>
+  <si>
+    <t>Akuyaku Reijou Tensei Ojisan</t>
+  </si>
+  <si>
+    <t>異修羅 第2期</t>
+  </si>
+  <si>
+    <t>Ishura 2nd Season</t>
+  </si>
+  <si>
+    <t>青の祓魔師 終夜篇</t>
+  </si>
+  <si>
+    <t>Ao no Exorcist: Yosuga-hen</t>
+  </si>
+  <si>
+    <t>青の祓魔師 雪ノ果篇／終夜篇</t>
+  </si>
+  <si>
+    <t>Bangumi: 202501; AniList: 202501; MAL: 202501; Filmarks: 202410</t>
+  </si>
+  <si>
+    <t>SAKAMOTO DAYS</t>
+  </si>
+  <si>
+    <t>Sakamoto Days</t>
+  </si>
+  <si>
+    <t>沖縄で好きになった子が方言すぎてツラすぎる</t>
+  </si>
+  <si>
+    <t>Okinawa de Suki ni Natta Ko ga Hougen Sugite Tsura Sugiru</t>
+  </si>
+  <si>
+    <t>Okinawa de Suki ni Natta Ko ga Hougen Sugite Tsurasugiru</t>
+  </si>
+  <si>
+    <t>戦隊レッド 異世界で冒険者になる</t>
+  </si>
+  <si>
+    <t>Sentai Red Isekai de Boukensha ni Naru</t>
+  </si>
+  <si>
+    <t>日本へようこそエルフさん。</t>
+  </si>
+  <si>
+    <t>Nihon e Youkoso Elf-san.</t>
+  </si>
+  <si>
+    <t>グリザイア：ファントムトリガー</t>
+  </si>
+  <si>
+    <t>Grisaia: Phantom Trigger THE ANIMATION (TV)</t>
+  </si>
+  <si>
+    <t>Grisaia: Phantom Trigger</t>
+  </si>
+  <si>
+    <t>天久鷹央の推理カルテ</t>
+  </si>
+  <si>
+    <t>Ameku Takao no Suiri Karte</t>
+  </si>
+  <si>
+    <t>トリリオンゲーム</t>
+  </si>
+  <si>
+    <t>Trillion Game</t>
+  </si>
+  <si>
+    <t>空色ユーティリティ</t>
+  </si>
+  <si>
+    <t>Sorairo Utility (TV)</t>
+  </si>
+  <si>
+    <t>ありふれた職業で世界最強 season 3</t>
+  </si>
+  <si>
+    <t>Arifureta Shokugyou de Sekai Saikyou 3rd season</t>
+  </si>
+  <si>
+    <t>Arifureta Shokugyou de Sekai Saikyou Season 3</t>
+  </si>
+  <si>
+    <t>この会社に好きな人がいます</t>
+  </si>
+  <si>
+    <t>Kono Kaisha ni Suki na Hito ga Imasu</t>
+  </si>
+  <si>
+    <t>この会社に好きな⼈がいます</t>
+  </si>
+  <si>
+    <t>ギルドの受付嬢ですが、残業は嫌なのでボスをソロ討伐しようと思います</t>
+  </si>
+  <si>
+    <t>Guild no Uketsukejou desu ga, Zangyou wa Iya nanode Boss wo Solo Toubatsu Shiyou to Omoimasu</t>
+  </si>
+  <si>
+    <t>全修。</t>
+  </si>
+  <si>
+    <t>Zenshuu.</t>
+  </si>
+  <si>
+    <t>クラスの大嫌いな女子と結婚することになった。</t>
+  </si>
+  <si>
+    <t>Class no Daikirai na Joshi to Kekkon Suru Koto ni Natta.</t>
+  </si>
+  <si>
+    <t>Class no Daikirai na Joshi to Kekkon suru Koto ni Natta.</t>
+  </si>
+  <si>
+    <t>誰ソ彼ホテル</t>
+  </si>
+  <si>
+    <t>Tasokare Hotel</t>
+  </si>
+  <si>
+    <t>甘神さんちの縁結び</t>
+  </si>
+  <si>
+    <t>Amagami-san Chi no Enmusubi</t>
+  </si>
+  <si>
+    <t>キン肉マン 完璧超人始祖編 Season 2</t>
+  </si>
+  <si>
+    <t>Kinnikuman: Kanpeki Choujin Shiso-hen Season 2</t>
+  </si>
+  <si>
+    <t>Kinnikuman: Kanpeki Chоujin Shiso-hen Season 2</t>
+  </si>
+  <si>
+    <t>Unnamed Memory Act.2</t>
+  </si>
+  <si>
+    <t>Unnamed Memory Act.1</t>
+  </si>
+  <si>
+    <t>Bangumi: 202501; AniList: 202501; MAL: 202501; Filmarks: 202404</t>
+  </si>
+  <si>
+    <t>マジック・メイカー ～異世界魔法の作り方～</t>
+  </si>
+  <si>
+    <t>Magic Maker: Isekai Mahou no Tsukurikata</t>
+  </si>
+  <si>
+    <t>マジック・メイカー　～異世界魔法の作り方～</t>
+  </si>
+  <si>
+    <t>凍牌～裏レート麻雀闘牌録～</t>
+  </si>
+  <si>
+    <t>Touhai: Ura Rate Mahjong Touhai Roku</t>
+  </si>
+  <si>
+    <t>Touhai: Ura Rate Mahjong Touhairoku</t>
+  </si>
+  <si>
+    <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+  </si>
+  <si>
+    <t>A-Rank Party wo Ridatsu Shita Ore wa, Moto Oshiegotachi to Meikyuu Shinbu wo Mezasu.</t>
+  </si>
+  <si>
+    <t>A-Rank Party wo Ridatsu shita Ore wa, Moto Oshiego-tachi to Meikyuu Shinbu wo Mezasu.</t>
+  </si>
+  <si>
+    <t>妖怪学校の先生はじめました！</t>
+  </si>
+  <si>
+    <t>Youkai Gakkou no Sensei Hajimemashita!</t>
+  </si>
+  <si>
+    <t>妖怪学校の先生はじめました！</t>
+  </si>
+  <si>
+    <t>ババンババンバンバンパイア</t>
+  </si>
+  <si>
+    <t>Baban Baban Ban Vampire</t>
+  </si>
+  <si>
+    <t>Babanbabanban Vampire</t>
+  </si>
+  <si>
+    <t>サラリーマンが異世界に行ったら四天王になった話</t>
+  </si>
+  <si>
+    <t>Salaryman ga Isekai ni Ittara Shitennou ni Natta Hanashi</t>
+  </si>
+  <si>
+    <t>いずれ最強の錬金術師？</t>
+  </si>
+  <si>
+    <t>Izure Saikyou no Renkinjutsushi?</t>
+  </si>
+  <si>
+    <t>青のミブロ</t>
+  </si>
+  <si>
+    <t>Ao no Miburo</t>
+  </si>
+  <si>
+    <t>Übel Blatt～ユーベルブラット～</t>
+  </si>
+  <si>
+    <t>Übel Blatt</t>
+  </si>
+  <si>
+    <t>アラフォー男の異世界通販</t>
+  </si>
+  <si>
+    <t>Arafou Otoko no Isekai Tsuuhan Seikatsu</t>
+  </si>
+  <si>
+    <t>Around 40 Otoko no Isekai Tsuuhan</t>
+  </si>
+  <si>
+    <t>ハニーレモンソーダ</t>
+  </si>
+  <si>
+    <t>Honey Lemon Soda</t>
+  </si>
+  <si>
+    <t>ニートくノ一となぜか同棲はじめました</t>
+  </si>
+  <si>
+    <t>NEET Kunoichi to Naze ka Dousei Hajimemashita</t>
+  </si>
+  <si>
+    <t>NEET Kunoichi to Nazeka Dousei Hajimemashita</t>
+  </si>
+  <si>
+    <t>Sランクモンスターの≪ベヒーモス≫だけど、猫と間違われてエルフ娘の騎士(ペット)として暮らしてます</t>
+  </si>
+  <si>
+    <t>S-Rank Monster no "Behemoth" Dakedo, Neko to Machigawarete Elf Musume no Pet to Shite Kurashitemasu</t>
+  </si>
+  <si>
+    <t>S-Rank Monster no &amp;quot;Behemoth&amp;quot; dakedo, Neko to Machigawarete Elf Musume no Pet toshite Kurashitemasu</t>
+  </si>
+  <si>
+    <t>Sランクモンスターの《ベヒーモス》だけど、猫と間違われてエルフ娘の騎士（ペット）として暮らしてます</t>
+  </si>
+  <si>
+    <t>Bangumi: 202501; AniList: 202412; MAL: 202501; Filmarks: 202501</t>
+  </si>
+  <si>
+    <t>黒岩メダカに私の可愛いが通じない</t>
+  </si>
+  <si>
+    <t>Kuroiwa Medaka ni Watashi no Kawaii ga Tsuujinai</t>
+  </si>
+  <si>
+    <t>想星のアクエリオン Myth of Emotions</t>
+  </si>
+  <si>
+    <t>Sousei no Aquarion: Myth of Emotions</t>
+  </si>
+  <si>
+    <t>どうせ、恋してしまうんだ。</t>
+  </si>
+  <si>
+    <t>Douse, Koishite Shimaunda.</t>
+  </si>
+  <si>
+    <t>不遇職【鑑定士】が実は最強だった</t>
+  </si>
+  <si>
+    <t>Fuguushoku [Kanteishi] ga Jitsu wa Saikyou Datta: Naraku de Kitaeta Saikyou no [Shingan] de Musou Suru</t>
+  </si>
+  <si>
+    <t>Fuguushoku &amp;quot;Kanteishi&amp;quot; ga Jitsu wa Saikyou Datta</t>
+  </si>
+  <si>
+    <t>もめんたりー・リリィ</t>
+  </si>
+  <si>
+    <t>Momentary Lily</t>
+  </si>
+  <si>
+    <t>妃教育から逃げたい私</t>
+  </si>
+  <si>
+    <t>Kisaki Kyouiku kara Nigetai Watashi</t>
+  </si>
+  <si>
+    <t>没落予定の貴族だけど、暇だったから魔法を極めてみた</t>
+  </si>
+  <si>
+    <t>Botsuraku Yotei no Kizoku dakedo, Hima Datta kara Mahou wo Kiwamete mita</t>
+  </si>
+  <si>
+    <t>Botsuraku Yotei no Kizoku dakedo, Hima Datta kara Mahou wo Kiwametemita</t>
+  </si>
+  <si>
+    <t>外れスキル《木の実マスター》 ～スキルの実（食べたら死ぬ）を無限に食べられるようになった件について～</t>
+  </si>
+  <si>
+    <t>Hazure Skill &amp;quot;Kinomi Master&amp;quot;: Skill no Mi (Tabetara Shinu) wo Mugen ni Taberareru You ni Natta Ken ni Tsuite</t>
+  </si>
+  <si>
+    <t>魔法使いの約束</t>
+  </si>
+  <si>
+    <t>Mahoutsukai no Yakusoku</t>
+  </si>
+  <si>
+    <t>FARMAGIA</t>
+  </si>
+  <si>
+    <t>Farmagia</t>
+  </si>
+  <si>
+    <t>魔神創造伝ワタル</t>
+  </si>
+  <si>
+    <t>Mashin Souzouden Wataru</t>
+  </si>
+  <si>
+    <t>科学×冒険サバイバル！</t>
+  </si>
+  <si>
+    <t>Kagaku×Bouken Survival!</t>
+  </si>
+  <si>
+    <t>Kagaku x Bouken Survival!</t>
+  </si>
+  <si>
+    <t>カードファイト!! ヴァンガード Divinez デラックス編</t>
+  </si>
+  <si>
+    <t>Cardfight!! Vanguard: Divinez Deluxe-hen</t>
+  </si>
+  <si>
+    <t>UniteUp! -Uni:Birth-</t>
+  </si>
+  <si>
+    <t>UniteUp!: Uni:Birth</t>
+  </si>
+  <si>
+    <t>UniteUp! Uni:Birth</t>
+  </si>
+  <si>
+    <t>キミとアイドルプリキュア♪</t>
+  </si>
+  <si>
+    <t>Kimi to Idol Precure♪</t>
   </si>
 </sst>
 </file>
@@ -128,7 +625,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,30 +671,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -209,8 +685,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +743,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CDDFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -315,6 +835,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -322,7 +892,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,40 +1014,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,12 +1051,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -521,19 +1061,79 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -816,10 +1416,10 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="34.77734375" style="25" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="36" customWidth="1"/>
@@ -841,72 +1441,72 @@
     <col min="23" max="24" width="9" style="25" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:911" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-    </row>
-    <row r="2" spans="1:911" s="18" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:911" ht="30" customHeight="1">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+    </row>
+    <row r="2" spans="1:911" s="18" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="P2" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="Q2" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
@@ -1802,9 +2402,9 @@
       <c r="AHY2" s="17"/>
       <c r="AHZ2" s="17"/>
     </row>
-    <row r="3" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:911" ht="36" customHeight="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="27"/>
@@ -1818,17 +2418,26 @@
         <f>C3*0.5+E3*0.2+G3*0.1+J3*0.2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="45">
         <v>1</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3"/>
     </row>
-    <row r="4" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="41"/>
+    <row r="4" spans="1:911" ht="36" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="27"/>
@@ -1839,16 +2448,25 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="4"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+    <row r="5" spans="1:911" ht="36" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="12"/>
@@ -1859,15 +2477,24 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="70"/>
+    <row r="6" spans="1:911" ht="36" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="34"/>
       <c r="D6" s="27"/>
       <c r="E6" s="35"/>
@@ -1878,15 +2505,24 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="2"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6"/>
     </row>
-    <row r="7" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:911" ht="36" customHeight="1">
       <c r="A7" s="44"/>
-      <c r="B7" s="71"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="35"/>
       <c r="D7" s="27"/>
       <c r="E7" s="35"/>
@@ -1897,11 +2533,19 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="54"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>29</v>
+      </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="7"/>
@@ -2796,9 +3440,9 @@
       <c r="AHY7" s="7"/>
       <c r="AHZ7" s="7"/>
     </row>
-    <row r="8" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:911" ht="36" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="27"/>
@@ -2809,14 +3453,23 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8"/>
     </row>
-    <row r="9" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
+      <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -2828,11 +3481,19 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="7"/>
@@ -3728,9 +4389,9 @@
       <c r="AHZ9" s="7"/>
       <c r="AIA9"/>
     </row>
-    <row r="10" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:911" ht="36" customHeight="1">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="27"/>
@@ -3741,12 +4402,20 @@
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="53"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="8"/>
+      <c r="O10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="S10" s="8"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -4640,9 +5309,9 @@
       <c r="AHY10" s="7"/>
       <c r="AHZ10" s="7"/>
     </row>
-    <row r="11" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="27"/>
@@ -4653,11 +5322,19 @@
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="7"/>
@@ -5553,9 +6230,9 @@
       <c r="AHZ11" s="7"/>
       <c r="AIA11"/>
     </row>
-    <row r="12" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="44"/>
+    <row r="12" spans="1:911" ht="36" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="27"/>
@@ -5566,11 +6243,19 @@
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="4"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="7"/>
@@ -6465,9 +7150,9 @@
       <c r="AHY12" s="7"/>
       <c r="AHZ12" s="7"/>
     </row>
-    <row r="13" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:911" ht="36" customHeight="1">
+      <c r="A13" s="63"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="27"/>
@@ -6478,15 +7163,24 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="2"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13"/>
     </row>
-    <row r="14" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="45"/>
+    <row r="14" spans="1:911" ht="36" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="28"/>
@@ -6497,15 +7191,24 @@
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14"/>
     </row>
-    <row r="15" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
+    <row r="15" spans="1:911" ht="36" customHeight="1">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="27"/>
@@ -6516,15 +7219,24 @@
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15"/>
     </row>
-    <row r="16" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="42"/>
+    <row r="16" spans="1:911" ht="36" customHeight="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="27"/>
@@ -6535,11 +7247,19 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
@@ -7434,9 +8154,9 @@
       <c r="AHY16" s="7"/>
       <c r="AHZ16" s="7"/>
     </row>
-    <row r="17" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:910" ht="36" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="27"/>
@@ -7447,15 +8167,24 @@
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="2"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17"/>
     </row>
-    <row r="18" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="43"/>
+    <row r="18" spans="1:910" ht="36" customHeight="1">
+      <c r="A18" s="64"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="27"/>
@@ -7466,12 +8195,20 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="53"/>
+      <c r="M18" s="45"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="8"/>
+      <c r="O18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="S18" s="8"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -8365,9 +9102,9 @@
       <c r="AHY18" s="7"/>
       <c r="AHZ18" s="7"/>
     </row>
-    <row r="19" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:910" ht="36" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="27"/>
@@ -8378,15 +9115,24 @@
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19"/>
     </row>
-    <row r="20" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:910" ht="36" customHeight="1">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="27"/>
@@ -8397,11 +9143,19 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="7"/>
@@ -9296,9 +10050,9 @@
       <c r="AHY20" s="7"/>
       <c r="AHZ20" s="7"/>
     </row>
-    <row r="21" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    <row r="21" spans="1:910" ht="36" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="27"/>
@@ -9309,15 +10063,24 @@
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21"/>
     </row>
-    <row r="22" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:910" ht="36" customHeight="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="27"/>
@@ -9328,11 +10091,19 @@
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="R22" s="20"/>
       <c r="S22" s="11"/>
       <c r="T22" s="7"/>
@@ -10227,9 +10998,9 @@
       <c r="AHY22" s="7"/>
       <c r="AHZ22" s="7"/>
     </row>
-    <row r="23" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+    <row r="23" spans="1:910" ht="36" customHeight="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="27"/>
@@ -10240,12 +11011,22 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="8"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="S23" s="8"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -11139,9 +11920,9 @@
       <c r="AHY23" s="7"/>
       <c r="AHZ23" s="7"/>
     </row>
-    <row r="24" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+    <row r="24" spans="1:910" ht="36" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="27"/>
@@ -11152,15 +11933,24 @@
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24"/>
     </row>
-    <row r="25" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:910" ht="36" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="27"/>
@@ -11171,11 +11961,19 @@
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
       <c r="T25" s="7"/>
@@ -12070,9 +12868,9 @@
       <c r="AHY25" s="7"/>
       <c r="AHZ25" s="7"/>
     </row>
-    <row r="26" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:910" ht="36" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="27"/>
@@ -12083,15 +12881,24 @@
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26"/>
     </row>
-    <row r="27" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+    <row r="27" spans="1:910" ht="36" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="27"/>
@@ -12102,11 +12909,19 @@
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -13001,9 +13816,9 @@
       <c r="AHY27" s="7"/>
       <c r="AHZ27" s="7"/>
     </row>
-    <row r="28" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+    <row r="28" spans="1:910" ht="36" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="27"/>
@@ -13014,11 +13829,19 @@
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="4"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="7"/>
@@ -13913,9 +14736,9 @@
       <c r="AHY28" s="7"/>
       <c r="AHZ28" s="7"/>
     </row>
-    <row r="29" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+    <row r="29" spans="1:910" ht="36" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="28"/>
@@ -13926,11 +14749,19 @@
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="7"/>
@@ -14825,10 +15656,10 @@
       <c r="AHY29" s="7"/>
       <c r="AHZ29" s="7"/>
     </row>
-    <row r="30" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="48"/>
+    <row r="30" spans="1:910" ht="36" customHeight="1">
+      <c r="A30" s="64"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="35"/>
       <c r="E30" s="27"/>
       <c r="F30" s="35"/>
@@ -14838,11 +15669,19 @@
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="7"/>
@@ -15737,10 +16576,10 @@
       <c r="AHY30" s="7"/>
       <c r="AHZ30" s="7"/>
     </row>
-    <row r="31" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:910" ht="36" customHeight="1">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="48"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="35"/>
       <c r="E31" s="28"/>
       <c r="F31" s="38"/>
@@ -15750,11 +16589,19 @@
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="7"/>
@@ -16649,10 +17496,10 @@
       <c r="AHY31" s="7"/>
       <c r="AHZ31" s="7"/>
     </row>
-    <row r="32" spans="1:910" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="48"/>
+    <row r="32" spans="1:910" ht="36" customHeight="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="35"/>
       <c r="E32" s="27"/>
       <c r="F32" s="35"/>
@@ -16662,11 +17509,19 @@
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="56"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q32" s="48" t="s">
+        <v>91</v>
+      </c>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="7"/>
@@ -17561,10 +18416,10 @@
       <c r="AHY32" s="7"/>
       <c r="AHZ32" s="7"/>
     </row>
-    <row r="33" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="48"/>
+    <row r="33" spans="1:911" ht="36" customHeight="1">
+      <c r="A33" s="43"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="35"/>
       <c r="E33" s="27"/>
       <c r="F33" s="35"/>
@@ -17574,16 +18429,25 @@
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R33"/>
     </row>
-    <row r="34" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="49"/>
+    <row r="34" spans="1:911" ht="36" customHeight="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="34"/>
       <c r="E34" s="26"/>
       <c r="F34" s="34"/>
@@ -17593,11 +18457,19 @@
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -18492,10 +19364,10 @@
       <c r="AHY34" s="7"/>
       <c r="AHZ34" s="7"/>
     </row>
-    <row r="35" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="48"/>
+    <row r="35" spans="1:911" ht="36" customHeight="1">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="35"/>
       <c r="E35" s="27"/>
       <c r="F35" s="35"/>
@@ -18505,11 +19377,19 @@
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
       <c r="T35" s="7"/>
@@ -19404,10 +20284,10 @@
       <c r="AHY35" s="7"/>
       <c r="AHZ35" s="7"/>
     </row>
-    <row r="36" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="48"/>
+    <row r="36" spans="1:911" ht="36" customHeight="1">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="35"/>
       <c r="E36" s="27"/>
       <c r="F36" s="35"/>
@@ -19417,11 +20297,19 @@
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="7"/>
@@ -20316,10 +21204,10 @@
       <c r="AHY36" s="7"/>
       <c r="AHZ36" s="7"/>
     </row>
-    <row r="37" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="48"/>
+    <row r="37" spans="1:911" ht="36" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="35"/>
       <c r="E37" s="27"/>
       <c r="F37" s="35"/>
@@ -20329,11 +21217,19 @@
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="7"/>
@@ -21228,10 +22124,10 @@
       <c r="AHY37" s="7"/>
       <c r="AHZ37" s="7"/>
     </row>
-    <row r="38" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="48"/>
+    <row r="38" spans="1:911" ht="36" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="35"/>
       <c r="E38" s="27"/>
       <c r="F38" s="35"/>
@@ -21241,11 +22137,19 @@
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="58"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q38" s="50" t="s">
+        <v>106</v>
+      </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -22140,10 +23044,10 @@
       <c r="AHY38" s="7"/>
       <c r="AHZ38" s="7"/>
     </row>
-    <row r="39" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="48"/>
+    <row r="39" spans="1:911" ht="36" customHeight="1">
+      <c r="A39" s="43"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="35"/>
       <c r="E39" s="27"/>
       <c r="F39" s="35"/>
@@ -22153,11 +23057,19 @@
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="7"/>
@@ -23052,10 +23964,10 @@
       <c r="AHY39" s="7"/>
       <c r="AHZ39" s="7"/>
     </row>
-    <row r="40" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="48"/>
+    <row r="40" spans="1:911" ht="36" customHeight="1">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="35"/>
       <c r="E40" s="27"/>
       <c r="F40" s="35"/>
@@ -23065,12 +23977,22 @@
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="8"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="S40" s="8"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -23964,9 +24886,9 @@
       <c r="AHY40" s="7"/>
       <c r="AHZ40" s="7"/>
     </row>
-    <row r="41" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+    <row r="41" spans="1:911" ht="36" customHeight="1">
+      <c r="A41" s="43"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="27"/>
@@ -23977,11 +24899,19 @@
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="7"/>
@@ -24876,9 +25806,9 @@
       <c r="AHY41" s="7"/>
       <c r="AHZ41" s="7"/>
     </row>
-    <row r="42" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:911" ht="36" customHeight="1">
+      <c r="A42" s="64"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="28"/>
@@ -24889,11 +25819,19 @@
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="4"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="O42" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="7"/>
@@ -25788,9 +26726,9 @@
       <c r="AHY42" s="7"/>
       <c r="AHZ42" s="7"/>
     </row>
-    <row r="43" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:911" ht="36" customHeight="1">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="27"/>
@@ -25801,15 +26739,24 @@
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="2"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R43"/>
     </row>
-    <row r="44" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+    <row r="44" spans="1:911" ht="36" customHeight="1">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="27"/>
@@ -25820,11 +26767,19 @@
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="7"/>
@@ -26719,9 +27674,9 @@
       <c r="AHY44" s="7"/>
       <c r="AHZ44" s="7"/>
     </row>
-    <row r="45" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
+    <row r="45" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="27"/>
@@ -26732,11 +27687,19 @@
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="7"/>
@@ -27632,8 +28595,8 @@
       <c r="AHZ45" s="7"/>
       <c r="AIA45"/>
     </row>
-    <row r="46" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+    <row r="46" spans="1:911" ht="36" customHeight="1">
+      <c r="A46" s="43"/>
       <c r="B46" s="44"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -27645,11 +28608,19 @@
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="2"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="7"/>
@@ -28544,9 +29515,9 @@
       <c r="AHY46" s="7"/>
       <c r="AHZ46" s="7"/>
     </row>
-    <row r="47" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+    <row r="47" spans="1:911" ht="36" customHeight="1">
+      <c r="A47" s="43"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="27"/>
@@ -28557,15 +29528,24 @@
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R47"/>
     </row>
-    <row r="48" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
+    <row r="48" spans="1:911" ht="36" customHeight="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="28"/>
@@ -28576,15 +29556,24 @@
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R48"/>
     </row>
-    <row r="49" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="46"/>
+    <row r="49" spans="1:911" ht="36" customHeight="1">
+      <c r="A49" s="43"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="27"/>
@@ -28595,11 +29584,19 @@
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="4"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P49" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
       <c r="T49" s="7"/>
@@ -29494,9 +30491,9 @@
       <c r="AHY49" s="7"/>
       <c r="AHZ49" s="7"/>
     </row>
-    <row r="50" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:911" ht="36" customHeight="1">
       <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="27"/>
@@ -29507,11 +30504,19 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="7"/>
@@ -30406,9 +31411,9 @@
       <c r="AHY50" s="7"/>
       <c r="AHZ50" s="7"/>
     </row>
-    <row r="51" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+    <row r="51" spans="1:911" ht="36" customHeight="1">
+      <c r="A51" s="44"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="27"/>
@@ -30419,15 +31424,24 @@
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="2"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R51"/>
     </row>
-    <row r="52" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+    <row r="52" spans="1:911" ht="36" customHeight="1">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="27"/>
@@ -30438,15 +31452,24 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="R52"/>
     </row>
-    <row r="53" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+    <row r="53" spans="1:911" ht="36" customHeight="1">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="27"/>
@@ -30457,15 +31480,26 @@
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R53" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="54" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+    <row r="54" spans="1:911" ht="36" customHeight="1">
+      <c r="A54" s="43"/>
+      <c r="B54" s="68"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="28"/>
@@ -30476,11 +31510,19 @@
       <c r="J54" s="30"/>
       <c r="K54" s="30"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="7"/>
@@ -31375,9 +32417,9 @@
       <c r="AHY54" s="7"/>
       <c r="AHZ54" s="7"/>
     </row>
-    <row r="55" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="62"/>
-      <c r="B55" s="4"/>
+    <row r="55" spans="1:911" ht="36" customHeight="1">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="27"/>
@@ -31389,10 +32431,18 @@
       <c r="K55" s="30"/>
       <c r="L55" s="6"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="56"/>
+      <c r="N55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O55" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q55" s="48" t="s">
+        <v>152</v>
+      </c>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="7"/>
@@ -32287,8 +33337,8 @@
       <c r="AHY55" s="7"/>
       <c r="AHZ55" s="7"/>
     </row>
-    <row r="56" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
+    <row r="56" spans="1:911" ht="36" customHeight="1">
+      <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
@@ -32301,10 +33351,18 @@
       <c r="K56" s="30"/>
       <c r="L56" s="6"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="64"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
+      <c r="N56" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O56" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="7"/>
@@ -33199,9 +34257,9 @@
       <c r="AHY56" s="7"/>
       <c r="AHZ56" s="7"/>
     </row>
-    <row r="57" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="44"/>
+    <row r="57" spans="1:911" ht="36" customHeight="1">
+      <c r="A57" s="44"/>
+      <c r="B57" s="62"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="27"/>
@@ -33213,13 +34271,22 @@
       <c r="K57" s="30"/>
       <c r="L57" s="6"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="2"/>
+      <c r="N57" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O57" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R57"/>
     </row>
-    <row r="58" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62"/>
+    <row r="58" spans="1:911" ht="36" customHeight="1">
+      <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -33232,14 +34299,23 @@
       <c r="K58" s="30"/>
       <c r="L58" s="6"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O58" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="P58" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R58"/>
     </row>
-    <row r="59" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
-      <c r="B59" s="4"/>
+    <row r="59" spans="1:911" ht="36" customHeight="1">
+      <c r="A59" s="43"/>
+      <c r="B59" s="62"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="27"/>
@@ -33251,14 +34327,23 @@
       <c r="K59" s="27"/>
       <c r="L59" s="16"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="2"/>
+      <c r="N59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O59" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P59" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R59"/>
     </row>
-    <row r="60" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="4"/>
+    <row r="60" spans="1:911" ht="36" customHeight="1">
+      <c r="A60" s="44"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -33268,12 +34353,20 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="64"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="2"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O60" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="7"/>
@@ -34168,9 +35261,9 @@
       <c r="AHY60" s="7"/>
       <c r="AHZ60" s="7"/>
     </row>
-    <row r="61" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="68"/>
+    <row r="61" spans="1:911" ht="36" customHeight="1">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="26"/>
@@ -34180,16 +35273,25 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="64"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="2"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O61" s="54"/>
+      <c r="P61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R61" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="62" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="4"/>
+    <row r="62" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
+      <c r="A62" s="43"/>
+      <c r="B62" s="62"/>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="26"/>
@@ -34200,11 +35302,19 @@
       <c r="J62" s="30"/>
       <c r="K62" s="30"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O62" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="7"/>
@@ -35100,9 +36210,9 @@
       <c r="AHZ62" s="7"/>
       <c r="AIA62"/>
     </row>
-    <row r="63" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="47"/>
+    <row r="63" spans="1:911" ht="36" customHeight="1">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="27"/>
@@ -35114,14 +36224,23 @@
       <c r="K63" s="30"/>
       <c r="L63" s="6"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
+      <c r="N63" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="O63" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="P63" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q63" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="R63"/>
     </row>
-    <row r="64" spans="1:911" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="47"/>
+    <row r="64" spans="1:911" ht="36" customHeight="1">
+      <c r="A64" s="72"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
       <c r="E64" s="28"/>
@@ -35133,14 +36252,14 @@
       <c r="K64" s="30"/>
       <c r="L64" s="6"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
     </row>
-    <row r="65" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="47"/>
+    <row r="65" spans="1:18" ht="36" customHeight="1">
+      <c r="A65" s="67"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="29"/>
@@ -35152,13 +36271,23 @@
       <c r="K65" s="30"/>
       <c r="L65" s="6"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O65" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R65"/>
     </row>
-    <row r="66" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="61"/>
+    <row r="66" spans="1:18" ht="36" customHeight="1">
+      <c r="A66" s="74"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="26"/>
@@ -35168,40 +36297,114 @@
       <c r="I66" s="26"/>
       <c r="J66" s="26"/>
       <c r="K66" s="26"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="O66" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="P66" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q66" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="R66"/>
     </row>
-    <row r="67" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="36" customHeight="1">
+      <c r="A67" s="76"/>
+      <c r="B67" s="77"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="N67" t="s">
+        <v>177</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>177</v>
+      </c>
+      <c r="R67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="36" customHeight="1">
+      <c r="A68" s="78"/>
+      <c r="B68" s="77"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
+      <c r="N68" t="s">
+        <v>179</v>
+      </c>
+      <c r="O68" t="s">
+        <v>180</v>
+      </c>
+      <c r="P68" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>179</v>
+      </c>
+      <c r="R68"/>
     </row>
-    <row r="69" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="36" customHeight="1">
+      <c r="A69" s="79"/>
+      <c r="B69" s="80"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
+      <c r="N69" t="s">
+        <v>182</v>
+      </c>
+      <c r="O69" t="s">
+        <v>183</v>
+      </c>
+      <c r="P69" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>182</v>
+      </c>
+      <c r="R69"/>
     </row>
-    <row r="70" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="36" customHeight="1">
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="36" customHeight="1">
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="36" customHeight="1">
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="36" customHeight="1">
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
@@ -35215,9 +36418,270 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="P4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="P5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="P7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="P8" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Q8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="P9" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="O10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="P10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="O11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="P11" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q11" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="O12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="P12" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N13" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O13" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="P13" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q13" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N14" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="O14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P14" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q14" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="O15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="P15" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N16" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O16" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P16" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q16" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N17" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O17" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="P17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q17" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="O18" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="P18" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="Q18" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="N19" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="O19" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="P19" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="Q19" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="N20" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="O20" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="P20" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="Q20" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="N21" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O21" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="P21" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="Q21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="N22" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="O22" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="P22" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="Q22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="N23" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="O23" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="P23" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="Q23" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="N24" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="O24" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="P24" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="Q24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="N25" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="O25" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="P25" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="Q25" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="N26" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="O26" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="P26" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="Q26" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="N27" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="O27" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="P27" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="Q27" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="N28" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="O28" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="P28" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="Q28" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="N29" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="O29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="P29" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="Q29" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="N30" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="O30" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="P30" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="Q30" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="N31" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="O31" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="P31" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="Q31" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="N32" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="O32" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="P32" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="Q32" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="N33" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="O33" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="P33" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="Q33" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="N34" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="O34" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="P34" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="Q34" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="N35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="O35" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="P35" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="Q35" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="N36" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="O36" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="P36" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="Q36" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="N37" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="O37" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="P37" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="Q37" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="N38" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="O38" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="P38" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="Q38" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="N39" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="O39" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="P39" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="Q39" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="N40" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="O40" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="P40" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="Q40" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="N41" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="O41" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="P41" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="Q41" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="N42" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="O42" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="P42" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="Q42" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="N43" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="O43" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="P43" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="Q43" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="N44" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="O44" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="P44" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="Q44" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="N45" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="O45" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="P45" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="Q45" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="N46" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="O46" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="P46" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="Q46" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="N47" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="O47" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="P47" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="Q47" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="N48" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="O48" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="P48" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="Q48" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="N49" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="O49" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="P49" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="Q49" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="N50" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="O50" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="P50" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="Q50" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="N51" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="O51" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="P51" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="Q51" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="N52" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="O52" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="P52" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="Q52" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="N53" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="O53" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="P53" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="Q53" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="N54" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="O54" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="P54" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="Q54" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="N55" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="O55" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="P55" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="Q55" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="N56" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="O56" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="P56" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="Q56" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="N57" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="O57" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="P57" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="Q57" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="N58" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="O58" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="P58" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="Q58" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="N59" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="O59" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="P59" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="Q59" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="N60" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="O60" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="P60" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="Q60" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="N61" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="P61" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="Q61" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="N62" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="O62" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="P62" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="Q62" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="N63" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="O63" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="P63" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="Q63" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="N65" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="O65" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="P65" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="Q65" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="N66" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="O66" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="P66" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="Q66" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="N67" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="P67" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="Q67" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="N68" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="O68" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="P68" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="Q68" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="N69" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="O69" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="P69" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="Q69" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId260"/>
+  <legacyDrawing r:id="rId261"/>
 </worksheet>
 </file>
--- a/mzzb.xlsx
+++ b/mzzb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\mzzbscore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E73DF-E13F-4BD5-868F-9AF46F51CC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AFF47A-D478-4ADE-BEA0-25E10B320CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="4455" windowWidth="17970" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本季" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>2025年XX月新番X期评分（数据截止日期XXXX年XX月XX日）</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Bangumi</t>
-  </si>
-  <si>
-    <t>Bangumi_total</t>
   </si>
   <si>
     <t>Anilist</t>
@@ -118,502 +115,8 @@
     <t>Filmarks_url</t>
   </si>
   <si>
-    <t>薬屋のひとりごと 第2期</t>
-  </si>
-  <si>
-    <t>Kusuriya no Hitorigoto 2nd Season</t>
-  </si>
-  <si>
-    <t>俺だけレベルアップな件 Season 2 -Arise from the Shadow-</t>
-  </si>
-  <si>
-    <t>Ore dake Level Up na Ken: Season 2 - Arise from the Shadow</t>
-  </si>
-  <si>
-    <t>Ore dake Level Up na Ken Season 2: Arise from the Shadow</t>
-  </si>
-  <si>
-    <t>Re:ゼロから始める異世界生活 3rd season 襲擊編</t>
-  </si>
-  <si>
-    <t>Re:Zero kara Hajimeru Isekai Seikatsu 3rd Season</t>
-  </si>
-  <si>
-    <t>Re:ゼロから始める異世界生活 3rd season 襲撃編</t>
-  </si>
-  <si>
-    <t>anilist放送日期不存在</t>
-  </si>
-  <si>
-    <t>メダリスト</t>
-  </si>
-  <si>
-    <t>Medalist</t>
-  </si>
-  <si>
-    <t>魔法つかいプリキュア！！～MIRAI DAYS～</t>
-  </si>
-  <si>
-    <t>Mahoutsukai Precure!! MIRAI DAYS</t>
-  </si>
-  <si>
-    <t>Mahoutsukai Precure!! Mirai Days</t>
-  </si>
-  <si>
-    <t>BanG Dream! Ave Mujica</t>
-  </si>
-  <si>
-    <t>君のことが大大大大大好きな100人の彼女 第2期</t>
-  </si>
-  <si>
-    <t>Kimi no Koto ga Dai Dai Dai Dai Daisuki na 100-nin no Kanojo 2nd Season</t>
-  </si>
-  <si>
-    <t>Kimi no Koto ga Daidaidaidaidaisuki na 100-nin no Kanojo 2nd Season</t>
-  </si>
-  <si>
-    <t>ダンジョンに出会いを求めるのは間違っているだろうかⅤ 豊穣の女神篇</t>
-  </si>
-  <si>
-    <t>Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka V: Houjou no Megami-hen</t>
-  </si>
-  <si>
-    <t>bangumi放送日期不存在</t>
-  </si>
-  <si>
-    <t>アオのハコ</t>
-  </si>
-  <si>
-    <t>Ao no Hako</t>
-  </si>
-  <si>
-    <t>Dr.STONE SCIENCE FUTURE</t>
-  </si>
-  <si>
-    <t>Dr. STONE: SCIENCE FUTURE</t>
-  </si>
-  <si>
-    <t>Dr. Stone: Science Future</t>
-  </si>
-  <si>
-    <t>BEASTARS FINAL SEASON Part1</t>
-  </si>
-  <si>
-    <t>BEASTARS FINAL SEASON Part 1</t>
-  </si>
-  <si>
-    <t>Beastars Final Season</t>
-  </si>
-  <si>
-    <t>地縛少年花子くん２</t>
-  </si>
-  <si>
-    <t>Jibaku Shounen Hanako-kun 2</t>
-  </si>
-  <si>
-    <t>チ。 ―地球の運動について―</t>
-  </si>
-  <si>
-    <t>Chi. Chikyuu no Undou ni Tsuite</t>
-  </si>
-  <si>
-    <t>ドラゴンボールDAIMA</t>
-  </si>
-  <si>
-    <t>Dragon Ball DAIMA</t>
-  </si>
-  <si>
-    <t>Dragon Ball Daima</t>
-  </si>
-  <si>
-    <t>花は咲く、修羅の如く</t>
-  </si>
-  <si>
-    <t>Hana wa Saku, Shura no Gotoku</t>
-  </si>
-  <si>
-    <t>Rurouni Kenshin: Meiji Kenkaku Romantan - Kyoto Douran</t>
-  </si>
-  <si>
-    <t>るろうに剣心 -明治剣客浪漫譚-  京都動乱</t>
-  </si>
-  <si>
-    <t>シャングリラ・フロンティア 2nd season</t>
-  </si>
-  <si>
-    <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～ 2nd season</t>
-  </si>
-  <si>
-    <t>Shangri-La Frontier 2nd Season</t>
-  </si>
-  <si>
-    <t>Shangri-La Frontier: Kusoge Hunter, Kamige ni Idoman to su 2nd Season</t>
-  </si>
-  <si>
-    <t>わたしの幸せな結婚 第二期</t>
-  </si>
-  <si>
-    <t>Watashi no Shiawase na Kekkon 2nd Season</t>
-  </si>
-  <si>
-    <t>悪役令嬢転生おじさん</t>
-  </si>
-  <si>
-    <t>Akuyaku Reijou Tensei Oji-san</t>
-  </si>
-  <si>
-    <t>Akuyaku Reijou Tensei Ojisan</t>
-  </si>
-  <si>
-    <t>異修羅 第2期</t>
-  </si>
-  <si>
-    <t>Ishura 2nd Season</t>
-  </si>
-  <si>
-    <t>青の祓魔師 終夜篇</t>
-  </si>
-  <si>
-    <t>Ao no Exorcist: Yosuga-hen</t>
-  </si>
-  <si>
-    <t>青の祓魔師 雪ノ果篇／終夜篇</t>
-  </si>
-  <si>
-    <t>Bangumi: 202501; AniList: 202501; MAL: 202501; Filmarks: 202410</t>
-  </si>
-  <si>
-    <t>SAKAMOTO DAYS</t>
-  </si>
-  <si>
-    <t>Sakamoto Days</t>
-  </si>
-  <si>
-    <t>沖縄で好きになった子が方言すぎてツラすぎる</t>
-  </si>
-  <si>
-    <t>Okinawa de Suki ni Natta Ko ga Hougen Sugite Tsura Sugiru</t>
-  </si>
-  <si>
-    <t>Okinawa de Suki ni Natta Ko ga Hougen Sugite Tsurasugiru</t>
-  </si>
-  <si>
-    <t>戦隊レッド 異世界で冒険者になる</t>
-  </si>
-  <si>
-    <t>Sentai Red Isekai de Boukensha ni Naru</t>
-  </si>
-  <si>
-    <t>日本へようこそエルフさん。</t>
-  </si>
-  <si>
-    <t>Nihon e Youkoso Elf-san.</t>
-  </si>
-  <si>
-    <t>グリザイア：ファントムトリガー</t>
-  </si>
-  <si>
-    <t>Grisaia: Phantom Trigger THE ANIMATION (TV)</t>
-  </si>
-  <si>
-    <t>Grisaia: Phantom Trigger</t>
-  </si>
-  <si>
-    <t>天久鷹央の推理カルテ</t>
-  </si>
-  <si>
-    <t>Ameku Takao no Suiri Karte</t>
-  </si>
-  <si>
-    <t>トリリオンゲーム</t>
-  </si>
-  <si>
-    <t>Trillion Game</t>
-  </si>
-  <si>
-    <t>空色ユーティリティ</t>
-  </si>
-  <si>
-    <t>Sorairo Utility (TV)</t>
-  </si>
-  <si>
-    <t>ありふれた職業で世界最強 season 3</t>
-  </si>
-  <si>
-    <t>Arifureta Shokugyou de Sekai Saikyou 3rd season</t>
-  </si>
-  <si>
-    <t>Arifureta Shokugyou de Sekai Saikyou Season 3</t>
-  </si>
-  <si>
-    <t>この会社に好きな人がいます</t>
-  </si>
-  <si>
-    <t>Kono Kaisha ni Suki na Hito ga Imasu</t>
-  </si>
-  <si>
-    <t>この会社に好きな⼈がいます</t>
-  </si>
-  <si>
-    <t>ギルドの受付嬢ですが、残業は嫌なのでボスをソロ討伐しようと思います</t>
-  </si>
-  <si>
-    <t>Guild no Uketsukejou desu ga, Zangyou wa Iya nanode Boss wo Solo Toubatsu Shiyou to Omoimasu</t>
-  </si>
-  <si>
-    <t>全修。</t>
-  </si>
-  <si>
-    <t>Zenshuu.</t>
-  </si>
-  <si>
-    <t>クラスの大嫌いな女子と結婚することになった。</t>
-  </si>
-  <si>
-    <t>Class no Daikirai na Joshi to Kekkon Suru Koto ni Natta.</t>
-  </si>
-  <si>
-    <t>Class no Daikirai na Joshi to Kekkon suru Koto ni Natta.</t>
-  </si>
-  <si>
-    <t>誰ソ彼ホテル</t>
-  </si>
-  <si>
-    <t>Tasokare Hotel</t>
-  </si>
-  <si>
-    <t>甘神さんちの縁結び</t>
-  </si>
-  <si>
-    <t>Amagami-san Chi no Enmusubi</t>
-  </si>
-  <si>
-    <t>キン肉マン 完璧超人始祖編 Season 2</t>
-  </si>
-  <si>
-    <t>Kinnikuman: Kanpeki Choujin Shiso-hen Season 2</t>
-  </si>
-  <si>
-    <t>Kinnikuman: Kanpeki Chоujin Shiso-hen Season 2</t>
-  </si>
-  <si>
-    <t>Unnamed Memory Act.2</t>
-  </si>
-  <si>
-    <t>Unnamed Memory Act.1</t>
-  </si>
-  <si>
-    <t>Bangumi: 202501; AniList: 202501; MAL: 202501; Filmarks: 202404</t>
-  </si>
-  <si>
-    <t>マジック・メイカー ～異世界魔法の作り方～</t>
-  </si>
-  <si>
-    <t>Magic Maker: Isekai Mahou no Tsukurikata</t>
-  </si>
-  <si>
-    <t>マジック・メイカー　～異世界魔法の作り方～</t>
-  </si>
-  <si>
-    <t>凍牌～裏レート麻雀闘牌録～</t>
-  </si>
-  <si>
-    <t>Touhai: Ura Rate Mahjong Touhai Roku</t>
-  </si>
-  <si>
-    <t>Touhai: Ura Rate Mahjong Touhairoku</t>
-  </si>
-  <si>
-    <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
-  </si>
-  <si>
-    <t>A-Rank Party wo Ridatsu Shita Ore wa, Moto Oshiegotachi to Meikyuu Shinbu wo Mezasu.</t>
-  </si>
-  <si>
-    <t>A-Rank Party wo Ridatsu shita Ore wa, Moto Oshiego-tachi to Meikyuu Shinbu wo Mezasu.</t>
-  </si>
-  <si>
-    <t>妖怪学校の先生はじめました！</t>
-  </si>
-  <si>
-    <t>Youkai Gakkou no Sensei Hajimemashita!</t>
-  </si>
-  <si>
-    <t>妖怪学校の先生はじめました！</t>
-  </si>
-  <si>
-    <t>ババンババンバンバンパイア</t>
-  </si>
-  <si>
-    <t>Baban Baban Ban Vampire</t>
-  </si>
-  <si>
-    <t>Babanbabanban Vampire</t>
-  </si>
-  <si>
-    <t>サラリーマンが異世界に行ったら四天王になった話</t>
-  </si>
-  <si>
-    <t>Salaryman ga Isekai ni Ittara Shitennou ni Natta Hanashi</t>
-  </si>
-  <si>
-    <t>いずれ最強の錬金術師？</t>
-  </si>
-  <si>
-    <t>Izure Saikyou no Renkinjutsushi?</t>
-  </si>
-  <si>
-    <t>青のミブロ</t>
-  </si>
-  <si>
-    <t>Ao no Miburo</t>
-  </si>
-  <si>
-    <t>Übel Blatt～ユーベルブラット～</t>
-  </si>
-  <si>
-    <t>Übel Blatt</t>
-  </si>
-  <si>
-    <t>アラフォー男の異世界通販</t>
-  </si>
-  <si>
-    <t>Arafou Otoko no Isekai Tsuuhan Seikatsu</t>
-  </si>
-  <si>
-    <t>Around 40 Otoko no Isekai Tsuuhan</t>
-  </si>
-  <si>
-    <t>ハニーレモンソーダ</t>
-  </si>
-  <si>
-    <t>Honey Lemon Soda</t>
-  </si>
-  <si>
-    <t>ニートくノ一となぜか同棲はじめました</t>
-  </si>
-  <si>
-    <t>NEET Kunoichi to Naze ka Dousei Hajimemashita</t>
-  </si>
-  <si>
-    <t>NEET Kunoichi to Nazeka Dousei Hajimemashita</t>
-  </si>
-  <si>
-    <t>Sランクモンスターの≪ベヒーモス≫だけど、猫と間違われてエルフ娘の騎士(ペット)として暮らしてます</t>
-  </si>
-  <si>
-    <t>S-Rank Monster no "Behemoth" Dakedo, Neko to Machigawarete Elf Musume no Pet to Shite Kurashitemasu</t>
-  </si>
-  <si>
-    <t>S-Rank Monster no &amp;quot;Behemoth&amp;quot; dakedo, Neko to Machigawarete Elf Musume no Pet toshite Kurashitemasu</t>
-  </si>
-  <si>
-    <t>Sランクモンスターの《ベヒーモス》だけど、猫と間違われてエルフ娘の騎士（ペット）として暮らしてます</t>
-  </si>
-  <si>
-    <t>Bangumi: 202501; AniList: 202412; MAL: 202501; Filmarks: 202501</t>
-  </si>
-  <si>
-    <t>黒岩メダカに私の可愛いが通じない</t>
-  </si>
-  <si>
-    <t>Kuroiwa Medaka ni Watashi no Kawaii ga Tsuujinai</t>
-  </si>
-  <si>
-    <t>想星のアクエリオン Myth of Emotions</t>
-  </si>
-  <si>
-    <t>Sousei no Aquarion: Myth of Emotions</t>
-  </si>
-  <si>
-    <t>どうせ、恋してしまうんだ。</t>
-  </si>
-  <si>
-    <t>Douse, Koishite Shimaunda.</t>
-  </si>
-  <si>
-    <t>不遇職【鑑定士】が実は最強だった</t>
-  </si>
-  <si>
-    <t>Fuguushoku [Kanteishi] ga Jitsu wa Saikyou Datta: Naraku de Kitaeta Saikyou no [Shingan] de Musou Suru</t>
-  </si>
-  <si>
-    <t>Fuguushoku &amp;quot;Kanteishi&amp;quot; ga Jitsu wa Saikyou Datta</t>
-  </si>
-  <si>
-    <t>もめんたりー・リリィ</t>
-  </si>
-  <si>
-    <t>Momentary Lily</t>
-  </si>
-  <si>
-    <t>妃教育から逃げたい私</t>
-  </si>
-  <si>
-    <t>Kisaki Kyouiku kara Nigetai Watashi</t>
-  </si>
-  <si>
-    <t>没落予定の貴族だけど、暇だったから魔法を極めてみた</t>
-  </si>
-  <si>
-    <t>Botsuraku Yotei no Kizoku dakedo, Hima Datta kara Mahou wo Kiwamete mita</t>
-  </si>
-  <si>
-    <t>Botsuraku Yotei no Kizoku dakedo, Hima Datta kara Mahou wo Kiwametemita</t>
-  </si>
-  <si>
-    <t>外れスキル《木の実マスター》 ～スキルの実（食べたら死ぬ）を無限に食べられるようになった件について～</t>
-  </si>
-  <si>
-    <t>Hazure Skill &amp;quot;Kinomi Master&amp;quot;: Skill no Mi (Tabetara Shinu) wo Mugen ni Taberareru You ni Natta Ken ni Tsuite</t>
-  </si>
-  <si>
-    <t>魔法使いの約束</t>
-  </si>
-  <si>
-    <t>Mahoutsukai no Yakusoku</t>
-  </si>
-  <si>
-    <t>FARMAGIA</t>
-  </si>
-  <si>
-    <t>Farmagia</t>
-  </si>
-  <si>
-    <t>魔神創造伝ワタル</t>
-  </si>
-  <si>
-    <t>Mashin Souzouden Wataru</t>
-  </si>
-  <si>
-    <t>科学×冒険サバイバル！</t>
-  </si>
-  <si>
-    <t>Kagaku×Bouken Survival!</t>
-  </si>
-  <si>
-    <t>Kagaku x Bouken Survival!</t>
-  </si>
-  <si>
-    <t>カードファイト!! ヴァンガード Divinez デラックス編</t>
-  </si>
-  <si>
-    <t>Cardfight!! Vanguard: Divinez Deluxe-hen</t>
-  </si>
-  <si>
-    <t>UniteUp! -Uni:Birth-</t>
-  </si>
-  <si>
-    <t>UniteUp!: Uni:Birth</t>
-  </si>
-  <si>
-    <t>UniteUp! Uni:Birth</t>
-  </si>
-  <si>
-    <t>キミとアイドルプリキュア♪</t>
-  </si>
-  <si>
-    <t>Kimi to Idol Precure♪</t>
+    <t>Bangumi_total</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -712,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,24 +243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8CDDFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +377,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,40 +549,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1134,6 +592,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1416,7 +898,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1442,19 +924,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:911" ht="30" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:911" s="18" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1467,46 +949,46 @@
         <v>3</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="K2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
@@ -2403,8 +1885,8 @@
       <c r="AHZ2" s="17"/>
     </row>
     <row r="3" spans="1:911" ht="36" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="27"/>
@@ -2421,23 +1903,15 @@
       <c r="M3" s="45">
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
       <c r="R3"/>
     </row>
     <row r="4" spans="1:911" ht="36" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="27"/>
@@ -2449,24 +1923,17 @@
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="45"/>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:911" ht="36" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="12"/>
@@ -2475,26 +1942,18 @@
       <c r="H5" s="34"/>
       <c r="I5" s="26"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5"/>
     </row>
     <row r="6" spans="1:911" ht="36" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="34"/>
       <c r="D6" s="27"/>
       <c r="E6" s="35"/>
@@ -2505,24 +1964,16 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="2"/>
       <c r="R6"/>
     </row>
     <row r="7" spans="1:911" ht="36" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="35"/>
       <c r="D7" s="27"/>
       <c r="E7" s="35"/>
@@ -2534,18 +1985,10 @@
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="45"/>
-      <c r="N7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>29</v>
-      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="46"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="7"/>
@@ -3441,8 +2884,8 @@
       <c r="AHZ7" s="7"/>
     </row>
     <row r="8" spans="1:911" ht="36" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="27"/>
@@ -3454,23 +2897,15 @@
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
       <c r="R8"/>
     </row>
     <row r="9" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="27"/>
@@ -3482,18 +2917,10 @@
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="45"/>
-      <c r="N9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="7"/>
@@ -4390,8 +3817,8 @@
       <c r="AIA9"/>
     </row>
     <row r="10" spans="1:911" ht="36" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="27"/>
@@ -4404,18 +3831,10 @@
       <c r="L10" s="6"/>
       <c r="M10" s="45"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="O10" s="47"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -5310,8 +4729,8 @@
       <c r="AHZ10" s="7"/>
     </row>
     <row r="11" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="27"/>
@@ -5323,18 +4742,10 @@
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="7"/>
@@ -6231,8 +5642,8 @@
       <c r="AIA11"/>
     </row>
     <row r="12" spans="1:911" ht="36" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="27"/>
@@ -6244,18 +5655,10 @@
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="45"/>
-      <c r="N12" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="7"/>
@@ -7151,8 +6554,8 @@
       <c r="AHZ12" s="7"/>
     </row>
     <row r="13" spans="1:911" ht="36" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="27"/>
@@ -7164,23 +6567,15 @@
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="2"/>
       <c r="R13"/>
     </row>
     <row r="14" spans="1:911" ht="36" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="28"/>
@@ -7192,23 +6587,15 @@
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="45"/>
-      <c r="N14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
       <c r="R14"/>
     </row>
     <row r="15" spans="1:911" ht="36" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="27"/>
@@ -7220,23 +6607,15 @@
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="45"/>
-      <c r="N15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="1:911" ht="36" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="27"/>
@@ -7248,18 +6627,10 @@
       <c r="K16" s="30"/>
       <c r="L16" s="6"/>
       <c r="M16" s="45"/>
-      <c r="N16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
@@ -8155,8 +7526,8 @@
       <c r="AHZ16" s="7"/>
     </row>
     <row r="17" spans="1:910" ht="36" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="27"/>
@@ -8168,23 +7539,15 @@
       <c r="K17" s="30"/>
       <c r="L17" s="6"/>
       <c r="M17" s="45"/>
-      <c r="N17" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="2"/>
       <c r="R17"/>
     </row>
     <row r="18" spans="1:910" ht="36" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="27"/>
@@ -8197,18 +7560,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="45"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
@@ -9103,8 +8458,8 @@
       <c r="AHZ18" s="7"/>
     </row>
     <row r="19" spans="1:910" ht="36" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="27"/>
@@ -9116,23 +8471,15 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="45"/>
-      <c r="N19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
       <c r="R19"/>
     </row>
     <row r="20" spans="1:910" ht="36" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="27"/>
@@ -9144,18 +8491,10 @@
       <c r="K20" s="27"/>
       <c r="L20" s="16"/>
       <c r="M20" s="45"/>
-      <c r="N20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="7"/>
@@ -10051,8 +9390,8 @@
       <c r="AHZ20" s="7"/>
     </row>
     <row r="21" spans="1:910" ht="36" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="27"/>
@@ -10064,23 +9403,15 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="45"/>
-      <c r="N21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
       <c r="R21"/>
     </row>
     <row r="22" spans="1:910" ht="36" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="27"/>
@@ -10092,18 +9423,10 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="45"/>
-      <c r="N22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="20"/>
       <c r="S22" s="11"/>
       <c r="T22" s="7"/>
@@ -10999,8 +10322,8 @@
       <c r="AHZ22" s="7"/>
     </row>
     <row r="23" spans="1:910" ht="36" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="27"/>
@@ -11012,21 +10335,11 @@
       <c r="K23" s="30"/>
       <c r="L23" s="6"/>
       <c r="M23" s="45"/>
-      <c r="N23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -11921,8 +11234,8 @@
       <c r="AHZ23" s="7"/>
     </row>
     <row r="24" spans="1:910" ht="36" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="27"/>
@@ -11934,23 +11247,15 @@
       <c r="K24" s="30"/>
       <c r="L24" s="6"/>
       <c r="M24" s="45"/>
-      <c r="N24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
       <c r="R24"/>
     </row>
     <row r="25" spans="1:910" ht="36" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="27"/>
@@ -11962,18 +11267,10 @@
       <c r="K25" s="30"/>
       <c r="L25" s="6"/>
       <c r="M25" s="45"/>
-      <c r="N25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
       <c r="T25" s="7"/>
@@ -12869,8 +12166,8 @@
       <c r="AHZ25" s="7"/>
     </row>
     <row r="26" spans="1:910" ht="36" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="27"/>
@@ -12882,23 +12179,15 @@
       <c r="K26" s="30"/>
       <c r="L26" s="6"/>
       <c r="M26" s="45"/>
-      <c r="N26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="R26"/>
     </row>
     <row r="27" spans="1:910" ht="36" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="27"/>
@@ -12910,18 +12199,10 @@
       <c r="K27" s="27"/>
       <c r="L27" s="16"/>
       <c r="M27" s="45"/>
-      <c r="N27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -13817,8 +13098,8 @@
       <c r="AHZ27" s="7"/>
     </row>
     <row r="28" spans="1:910" ht="36" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="27"/>
@@ -13830,18 +13111,10 @@
       <c r="K28" s="30"/>
       <c r="L28" s="6"/>
       <c r="M28" s="45"/>
-      <c r="N28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="7"/>
@@ -14737,8 +14010,8 @@
       <c r="AHZ28" s="7"/>
     </row>
     <row r="29" spans="1:910" ht="36" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="28"/>
@@ -14750,18 +14023,10 @@
       <c r="K29" s="30"/>
       <c r="L29" s="6"/>
       <c r="M29" s="45"/>
-      <c r="N29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="7"/>
@@ -15657,8 +14922,8 @@
       <c r="AHZ29" s="7"/>
     </row>
     <row r="30" spans="1:910" ht="36" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="41"/>
       <c r="D30" s="35"/>
       <c r="E30" s="27"/>
@@ -15670,18 +14935,10 @@
       <c r="K30" s="30"/>
       <c r="L30" s="6"/>
       <c r="M30" s="45"/>
-      <c r="N30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="7"/>
@@ -16577,8 +15834,8 @@
       <c r="AHZ30" s="7"/>
     </row>
     <row r="31" spans="1:910" ht="36" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="41"/>
       <c r="D31" s="35"/>
       <c r="E31" s="28"/>
@@ -16590,18 +15847,10 @@
       <c r="K31" s="30"/>
       <c r="L31" s="6"/>
       <c r="M31" s="45"/>
-      <c r="N31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="7"/>
@@ -17497,8 +16746,8 @@
       <c r="AHZ31" s="7"/>
     </row>
     <row r="32" spans="1:910" ht="36" customHeight="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="41"/>
       <c r="D32" s="35"/>
       <c r="E32" s="27"/>
@@ -17510,18 +16759,10 @@
       <c r="K32" s="30"/>
       <c r="L32" s="6"/>
       <c r="M32" s="45"/>
-      <c r="N32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q32" s="48" t="s">
-        <v>91</v>
-      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="48"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="7"/>
@@ -18417,8 +17658,8 @@
       <c r="AHZ32" s="7"/>
     </row>
     <row r="33" spans="1:911" ht="36" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="41"/>
       <c r="D33" s="35"/>
       <c r="E33" s="27"/>
@@ -18430,23 +17671,15 @@
       <c r="K33" s="30"/>
       <c r="L33" s="6"/>
       <c r="M33" s="45"/>
-      <c r="N33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
       <c r="R33"/>
     </row>
     <row r="34" spans="1:911" ht="36" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="74"/>
       <c r="C34" s="42"/>
       <c r="D34" s="34"/>
       <c r="E34" s="26"/>
@@ -18458,18 +17691,10 @@
       <c r="K34" s="27"/>
       <c r="L34" s="16"/>
       <c r="M34" s="45"/>
-      <c r="N34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -19365,8 +18590,8 @@
       <c r="AHZ34" s="7"/>
     </row>
     <row r="35" spans="1:911" ht="36" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="41"/>
       <c r="D35" s="35"/>
       <c r="E35" s="27"/>
@@ -19378,18 +18603,10 @@
       <c r="K35" s="30"/>
       <c r="L35" s="6"/>
       <c r="M35" s="45"/>
-      <c r="N35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
       <c r="T35" s="7"/>
@@ -20285,8 +19502,8 @@
       <c r="AHZ35" s="7"/>
     </row>
     <row r="36" spans="1:911" ht="36" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="41"/>
       <c r="D36" s="35"/>
       <c r="E36" s="27"/>
@@ -20298,18 +19515,10 @@
       <c r="K36" s="30"/>
       <c r="L36" s="6"/>
       <c r="M36" s="45"/>
-      <c r="N36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
       <c r="T36" s="7"/>
@@ -21205,8 +20414,8 @@
       <c r="AHZ36" s="7"/>
     </row>
     <row r="37" spans="1:911" ht="36" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="41"/>
       <c r="D37" s="35"/>
       <c r="E37" s="27"/>
@@ -21218,18 +20427,10 @@
       <c r="K37" s="30"/>
       <c r="L37" s="6"/>
       <c r="M37" s="45"/>
-      <c r="N37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="7"/>
@@ -22125,8 +21326,8 @@
       <c r="AHZ37" s="7"/>
     </row>
     <row r="38" spans="1:911" ht="36" customHeight="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="41"/>
       <c r="D38" s="35"/>
       <c r="E38" s="27"/>
@@ -22138,18 +21339,10 @@
       <c r="K38" s="30"/>
       <c r="L38" s="6"/>
       <c r="M38" s="45"/>
-      <c r="N38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q38" s="50" t="s">
-        <v>106</v>
-      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="50"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -23045,8 +22238,8 @@
       <c r="AHZ38" s="7"/>
     </row>
     <row r="39" spans="1:911" ht="36" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="68"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="41"/>
       <c r="D39" s="35"/>
       <c r="E39" s="27"/>
@@ -23058,18 +22251,10 @@
       <c r="K39" s="30"/>
       <c r="L39" s="6"/>
       <c r="M39" s="45"/>
-      <c r="N39" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="7"/>
@@ -23965,8 +23150,8 @@
       <c r="AHZ39" s="7"/>
     </row>
     <row r="40" spans="1:911" ht="36" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="41"/>
       <c r="D40" s="35"/>
       <c r="E40" s="27"/>
@@ -23978,21 +23163,11 @@
       <c r="K40" s="30"/>
       <c r="L40" s="6"/>
       <c r="M40" s="45"/>
-      <c r="N40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
@@ -24887,8 +24062,8 @@
       <c r="AHZ40" s="7"/>
     </row>
     <row r="41" spans="1:911" ht="36" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="62"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="27"/>
@@ -24900,18 +24075,10 @@
       <c r="K41" s="30"/>
       <c r="L41" s="6"/>
       <c r="M41" s="45"/>
-      <c r="N41" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="7"/>
@@ -25807,8 +24974,8 @@
       <c r="AHZ41" s="7"/>
     </row>
     <row r="42" spans="1:911" ht="36" customHeight="1">
-      <c r="A42" s="64"/>
-      <c r="B42" s="69"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="28"/>
@@ -25820,18 +24987,10 @@
       <c r="K42" s="30"/>
       <c r="L42" s="6"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="O42" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="P42" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="4"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="7"/>
@@ -26727,8 +25886,8 @@
       <c r="AHZ42" s="7"/>
     </row>
     <row r="43" spans="1:911" ht="36" customHeight="1">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="27"/>
@@ -26740,23 +25899,15 @@
       <c r="K43" s="30"/>
       <c r="L43" s="6"/>
       <c r="M43" s="45"/>
-      <c r="N43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="2"/>
       <c r="R43"/>
     </row>
     <row r="44" spans="1:911" ht="36" customHeight="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="27"/>
@@ -26768,18 +25919,10 @@
       <c r="K44" s="30"/>
       <c r="L44" s="6"/>
       <c r="M44" s="45"/>
-      <c r="N44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
       <c r="T44" s="7"/>
@@ -27675,8 +26818,8 @@
       <c r="AHZ44" s="7"/>
     </row>
     <row r="45" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="27"/>
@@ -27688,18 +26831,10 @@
       <c r="K45" s="30"/>
       <c r="L45" s="6"/>
       <c r="M45" s="45"/>
-      <c r="N45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
       <c r="T45" s="7"/>
@@ -28596,8 +27731,8 @@
       <c r="AIA45"/>
     </row>
     <row r="46" spans="1:911" ht="36" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="27"/>
@@ -28609,18 +27744,10 @@
       <c r="K46" s="30"/>
       <c r="L46" s="6"/>
       <c r="M46" s="45"/>
-      <c r="N46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="2"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="7"/>
@@ -29516,8 +28643,8 @@
       <c r="AHZ46" s="7"/>
     </row>
     <row r="47" spans="1:911" ht="36" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="27"/>
@@ -29529,23 +28656,15 @@
       <c r="K47" s="30"/>
       <c r="L47" s="6"/>
       <c r="M47" s="45"/>
-      <c r="N47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
       <c r="R47"/>
     </row>
     <row r="48" spans="1:911" ht="36" customHeight="1">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="28"/>
@@ -29557,23 +28676,15 @@
       <c r="K48" s="30"/>
       <c r="L48" s="6"/>
       <c r="M48" s="45"/>
-      <c r="N48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
       <c r="R48"/>
     </row>
     <row r="49" spans="1:911" ht="36" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="27"/>
@@ -29585,18 +28696,10 @@
       <c r="K49" s="27"/>
       <c r="L49" s="16"/>
       <c r="M49" s="45"/>
-      <c r="N49" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P49" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="4"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
       <c r="T49" s="7"/>
@@ -30492,8 +29595,8 @@
       <c r="AHZ49" s="7"/>
     </row>
     <row r="50" spans="1:911" ht="36" customHeight="1">
-      <c r="A50" s="44"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="77"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="27"/>
@@ -30505,18 +29608,10 @@
       <c r="K50" s="30"/>
       <c r="L50" s="6"/>
       <c r="M50" s="45"/>
-      <c r="N50" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
       <c r="T50" s="7"/>
@@ -31412,8 +30507,8 @@
       <c r="AHZ50" s="7"/>
     </row>
     <row r="51" spans="1:911" ht="36" customHeight="1">
-      <c r="A51" s="44"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="77"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="27"/>
@@ -31425,23 +30520,15 @@
       <c r="K51" s="30"/>
       <c r="L51" s="6"/>
       <c r="M51" s="45"/>
-      <c r="N51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2"/>
       <c r="R51"/>
     </row>
     <row r="52" spans="1:911" ht="36" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="27"/>
@@ -31453,18 +30540,10 @@
       <c r="K52" s="30"/>
       <c r="L52" s="6"/>
       <c r="M52" s="45"/>
-      <c r="N52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
       <c r="R52"/>
     </row>
     <row r="53" spans="1:911" ht="36" customHeight="1">
@@ -31481,25 +30560,15 @@
       <c r="K53" s="30"/>
       <c r="L53" s="6"/>
       <c r="M53" s="45"/>
-      <c r="N53" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="R53" t="s">
-        <v>149</v>
-      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53"/>
     </row>
     <row r="54" spans="1:911" ht="36" customHeight="1">
       <c r="A54" s="43"/>
-      <c r="B54" s="68"/>
+      <c r="B54" s="61"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="28"/>
@@ -31511,18 +30580,10 @@
       <c r="K54" s="30"/>
       <c r="L54" s="6"/>
       <c r="M54" s="45"/>
-      <c r="N54" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="7"/>
@@ -32431,18 +31492,10 @@
       <c r="K55" s="30"/>
       <c r="L55" s="6"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O55" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q55" s="48" t="s">
-        <v>152</v>
-      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="48"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="7"/>
@@ -33351,18 +32404,10 @@
       <c r="K56" s="30"/>
       <c r="L56" s="6"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O56" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="7"/>
@@ -34259,7 +33304,7 @@
     </row>
     <row r="57" spans="1:911" ht="36" customHeight="1">
       <c r="A57" s="44"/>
-      <c r="B57" s="62"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="27"/>
@@ -34271,18 +33316,10 @@
       <c r="K57" s="30"/>
       <c r="L57" s="6"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O57" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>156</v>
-      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="2"/>
       <c r="R57"/>
     </row>
     <row r="58" spans="1:911" ht="36" customHeight="1">
@@ -34299,23 +33336,15 @@
       <c r="K58" s="30"/>
       <c r="L58" s="6"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="O58" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="P58" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="2"/>
       <c r="R58"/>
     </row>
     <row r="59" spans="1:911" ht="36" customHeight="1">
       <c r="A59" s="43"/>
-      <c r="B59" s="62"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="27"/>
@@ -34327,23 +33356,15 @@
       <c r="K59" s="27"/>
       <c r="L59" s="16"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O59" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="P59" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="2"/>
       <c r="R59"/>
     </row>
     <row r="60" spans="1:911" ht="36" customHeight="1">
       <c r="A60" s="44"/>
-      <c r="B60" s="71"/>
+      <c r="B60" s="62"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="26"/>
@@ -34355,18 +33376,10 @@
       <c r="K60" s="1"/>
       <c r="L60" s="57"/>
       <c r="M60" s="53"/>
-      <c r="N60" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O60" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="N60" s="4"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="2"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="7"/>
@@ -35275,23 +34288,15 @@
       <c r="K61" s="1"/>
       <c r="L61" s="57"/>
       <c r="M61" s="53"/>
-      <c r="N61" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="N61" s="4"/>
       <c r="O61" s="54"/>
-      <c r="P61" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="R61" t="s">
-        <v>26</v>
-      </c>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="2"/>
+      <c r="R61"/>
     </row>
     <row r="62" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
       <c r="A62" s="43"/>
-      <c r="B62" s="62"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="26"/>
@@ -35303,18 +34308,10 @@
       <c r="K62" s="30"/>
       <c r="L62" s="6"/>
       <c r="M62" s="58"/>
-      <c r="N62" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O62" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="N62" s="4"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="7"/>
@@ -36224,23 +35221,15 @@
       <c r="K63" s="30"/>
       <c r="L63" s="6"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="O63" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="P63" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q63" s="53" t="s">
-        <v>170</v>
-      </c>
+      <c r="N63" s="53"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
       <c r="R63"/>
     </row>
     <row r="64" spans="1:911" ht="36" customHeight="1">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
       <c r="E64" s="28"/>
@@ -36258,8 +35247,8 @@
       <c r="Q64" s="53"/>
     </row>
     <row r="65" spans="1:18" ht="36" customHeight="1">
-      <c r="A65" s="67"/>
-      <c r="B65" s="73"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="29"/>
@@ -36271,23 +35260,15 @@
       <c r="K65" s="30"/>
       <c r="L65" s="6"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O65" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
       <c r="R65"/>
     </row>
     <row r="66" spans="1:18" ht="36" customHeight="1">
-      <c r="A66" s="74"/>
-      <c r="B66" s="75"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="26"/>
@@ -36299,23 +35280,15 @@
       <c r="K66" s="26"/>
       <c r="L66" s="57"/>
       <c r="M66" s="53"/>
-      <c r="N66" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="O66" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="P66" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q66" s="53" t="s">
-        <v>174</v>
-      </c>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
       <c r="R66"/>
     </row>
     <row r="67" spans="1:18" ht="36" customHeight="1">
-      <c r="A67" s="76"/>
-      <c r="B67" s="77"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="68"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="G67"/>
@@ -36323,23 +35296,15 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
-      <c r="N67" t="s">
-        <v>177</v>
-      </c>
+      <c r="N67"/>
       <c r="O67"/>
-      <c r="P67" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>177</v>
-      </c>
-      <c r="R67" t="s">
-        <v>26</v>
-      </c>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
     </row>
     <row r="68" spans="1:18" ht="36" customHeight="1">
-      <c r="A68" s="78"/>
-      <c r="B68" s="77"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
@@ -36349,23 +35314,15 @@
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
-      <c r="N68" t="s">
-        <v>179</v>
-      </c>
-      <c r="O68" t="s">
-        <v>180</v>
-      </c>
-      <c r="P68" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>179</v>
-      </c>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
       <c r="R68"/>
     </row>
     <row r="69" spans="1:18" ht="36" customHeight="1">
-      <c r="A69" s="79"/>
-      <c r="B69" s="80"/>
+      <c r="A69" s="70"/>
+      <c r="B69" s="71"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
@@ -36375,18 +35332,10 @@
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
-      <c r="N69" t="s">
-        <v>182</v>
-      </c>
-      <c r="O69" t="s">
-        <v>183</v>
-      </c>
-      <c r="P69" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>182</v>
-      </c>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
       <c r="R69"/>
     </row>
     <row r="70" spans="1:18" ht="36" customHeight="1">
@@ -36419,269 +35368,8 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="O4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="P4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Q4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Q5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="O6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="P6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Q6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="O7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="P7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="Q7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="O8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="P8" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="Q8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O9" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P9" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="Q9" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="O10" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="P10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="Q10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="N11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="O11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="P11" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q11" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N12" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="P12" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q12" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N13" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O13" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="P13" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q13" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N14" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O14" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P14" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q14" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N15" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="O15" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="P15" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="N16" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="O16" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="P16" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q16" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="N17" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="O17" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="P17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q17" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="O18" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="P18" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="Q18" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="N19" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="O19" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="P19" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="Q19" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="N20" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="O20" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="P20" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="Q20" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="N21" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O21" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="P21" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="Q21" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="N22" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="O22" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="P22" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="Q22" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="N23" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O23" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="P23" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="Q23" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="N24" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="O24" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="P24" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="Q24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="N25" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="O25" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="P25" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="Q25" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="N26" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="O26" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="P26" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="Q26" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="N27" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="O27" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="P27" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="Q27" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="N28" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="O28" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="P28" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="Q28" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="N29" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="O29" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="P29" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="Q29" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="N30" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="O30" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="P30" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="Q30" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="N31" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="O31" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="P31" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="Q31" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="N32" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="O32" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="P32" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="Q32" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="N33" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="O33" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="P33" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="Q33" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="N34" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="O34" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="P34" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="Q34" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="N35" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="O35" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="P35" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="Q35" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="N36" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="O36" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="P36" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="Q36" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="N37" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="O37" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="P37" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="Q37" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="N38" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="O38" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="P38" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="Q38" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="N39" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="O39" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="P39" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="Q39" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="N40" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="O40" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="P40" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="Q40" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="N41" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="O41" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="P41" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="Q41" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="N42" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="O42" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="P42" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="Q42" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="N43" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="O43" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="P43" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="Q43" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="N44" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="O44" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="P44" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="Q44" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="N45" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="O45" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="P45" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="Q45" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="N46" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="O46" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="P46" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="Q46" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="N47" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="O47" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="P47" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="Q47" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="N48" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="O48" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="P48" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="Q48" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="N49" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="O49" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="P49" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="Q49" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="N50" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="O50" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="P50" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="Q50" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="N51" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="O51" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="P51" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="Q51" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="N52" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="O52" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="P52" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="Q52" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="N53" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="O53" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="P53" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="Q53" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="N54" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="O54" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="P54" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="Q54" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="N55" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="O55" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="P55" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="Q55" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="N56" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="O56" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="P56" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="Q56" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="N57" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="O57" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="P57" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="Q57" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="N58" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="O58" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="P58" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="Q58" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="N59" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="O59" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="P59" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="Q59" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="N60" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="O60" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="P60" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="Q60" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="N61" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="P61" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="Q61" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="N62" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="O62" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="P62" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="Q62" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="N63" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="O63" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="P63" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="Q63" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="N65" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="O65" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="P65" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="Q65" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="N66" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="O66" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="P66" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="Q66" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="N67" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="P67" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="Q67" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="N68" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="O68" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="P68" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="Q68" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="N69" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="O69" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="P69" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="Q69" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId260"/>
-  <legacyDrawing r:id="rId261"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mzzb.xlsx
+++ b/mzzb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\mzzbscore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AFF47A-D478-4ADE-BEA0-25E10B320CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA57E4F4-2368-48D8-AE2B-25D5567A3556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本季" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,9 @@
     <t>Bangumi</t>
   </si>
   <si>
+    <t>Bangumi_total</t>
+  </si>
+  <si>
     <t>Anilist</t>
   </si>
   <si>
@@ -113,10 +116,6 @@
   </si>
   <si>
     <t>Filmarks_url</t>
-  </si>
-  <si>
-    <t>Bangumi_total</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -215,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +382,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,10 +593,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -616,6 +617,16 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -898,7 +909,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -924,19 +935,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:911" ht="30" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:911" s="18" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -949,46 +960,46 @@
         <v>3</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
@@ -1885,8 +1896,8 @@
       <c r="AHZ2" s="17"/>
     </row>
     <row r="3" spans="1:911" ht="36" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="27"/>
@@ -1896,13 +1907,8 @@
       <c r="I3" s="27"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
-      <c r="L3" s="6">
-        <f>C3*0.5+E3*0.2+G3*0.1+J3*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="45">
-        <v>1</v>
-      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1910,8 +1916,8 @@
       <c r="R3"/>
     </row>
     <row r="4" spans="1:911" ht="36" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="27"/>
@@ -1932,8 +1938,8 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:911" ht="36" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="12"/>
@@ -1952,8 +1958,8 @@
       <c r="R5"/>
     </row>
     <row r="6" spans="1:911" ht="36" customHeight="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="34"/>
       <c r="D6" s="27"/>
       <c r="E6" s="35"/>
@@ -1972,8 +1978,8 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:911" ht="36" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="35"/>
       <c r="D7" s="27"/>
       <c r="E7" s="35"/>
@@ -2884,8 +2890,8 @@
       <c r="AHZ7" s="7"/>
     </row>
     <row r="8" spans="1:911" ht="36" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="27"/>
@@ -2904,8 +2910,8 @@
       <c r="R8"/>
     </row>
     <row r="9" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="27"/>
@@ -3817,8 +3823,8 @@
       <c r="AIA9"/>
     </row>
     <row r="10" spans="1:911" ht="36" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="27"/>
@@ -4729,8 +4735,8 @@
       <c r="AHZ10" s="7"/>
     </row>
     <row r="11" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="27"/>
@@ -5642,8 +5648,8 @@
       <c r="AIA11"/>
     </row>
     <row r="12" spans="1:911" ht="36" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="27"/>
@@ -6554,8 +6560,8 @@
       <c r="AHZ12" s="7"/>
     </row>
     <row r="13" spans="1:911" ht="36" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="27"/>
@@ -6574,8 +6580,8 @@
       <c r="R13"/>
     </row>
     <row r="14" spans="1:911" ht="36" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="28"/>
@@ -6594,8 +6600,8 @@
       <c r="R14"/>
     </row>
     <row r="15" spans="1:911" ht="36" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="27"/>
@@ -6614,8 +6620,8 @@
       <c r="R15"/>
     </row>
     <row r="16" spans="1:911" ht="36" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="27"/>
@@ -7526,8 +7532,8 @@
       <c r="AHZ16" s="7"/>
     </row>
     <row r="17" spans="1:910" ht="36" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="27"/>
@@ -7546,8 +7552,8 @@
       <c r="R17"/>
     </row>
     <row r="18" spans="1:910" ht="36" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="27"/>
@@ -8458,8 +8464,8 @@
       <c r="AHZ18" s="7"/>
     </row>
     <row r="19" spans="1:910" ht="36" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="27"/>
@@ -8478,8 +8484,8 @@
       <c r="R19"/>
     </row>
     <row r="20" spans="1:910" ht="36" customHeight="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="27"/>
@@ -9390,8 +9396,8 @@
       <c r="AHZ20" s="7"/>
     </row>
     <row r="21" spans="1:910" ht="36" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="27"/>
@@ -9410,8 +9416,8 @@
       <c r="R21"/>
     </row>
     <row r="22" spans="1:910" ht="36" customHeight="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="27"/>
@@ -10322,8 +10328,8 @@
       <c r="AHZ22" s="7"/>
     </row>
     <row r="23" spans="1:910" ht="36" customHeight="1">
-      <c r="A23" s="74"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="27"/>
@@ -11234,8 +11240,8 @@
       <c r="AHZ23" s="7"/>
     </row>
     <row r="24" spans="1:910" ht="36" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="27"/>
@@ -11254,8 +11260,8 @@
       <c r="R24"/>
     </row>
     <row r="25" spans="1:910" ht="36" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="74"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="27"/>
@@ -12166,8 +12172,8 @@
       <c r="AHZ25" s="7"/>
     </row>
     <row r="26" spans="1:910" ht="36" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="27"/>
@@ -12186,8 +12192,8 @@
       <c r="R26"/>
     </row>
     <row r="27" spans="1:910" ht="36" customHeight="1">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="27"/>
@@ -13098,8 +13104,8 @@
       <c r="AHZ27" s="7"/>
     </row>
     <row r="28" spans="1:910" ht="36" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="27"/>
@@ -14010,8 +14016,8 @@
       <c r="AHZ28" s="7"/>
     </row>
     <row r="29" spans="1:910" ht="36" customHeight="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="28"/>
@@ -14922,8 +14928,8 @@
       <c r="AHZ29" s="7"/>
     </row>
     <row r="30" spans="1:910" ht="36" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="76"/>
       <c r="C30" s="41"/>
       <c r="D30" s="35"/>
       <c r="E30" s="27"/>
@@ -15834,8 +15840,8 @@
       <c r="AHZ30" s="7"/>
     </row>
     <row r="31" spans="1:910" ht="36" customHeight="1">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="41"/>
       <c r="D31" s="35"/>
       <c r="E31" s="28"/>
@@ -16746,8 +16752,8 @@
       <c r="AHZ31" s="7"/>
     </row>
     <row r="32" spans="1:910" ht="36" customHeight="1">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="41"/>
       <c r="D32" s="35"/>
       <c r="E32" s="27"/>
@@ -17658,8 +17664,8 @@
       <c r="AHZ32" s="7"/>
     </row>
     <row r="33" spans="1:911" ht="36" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="41"/>
       <c r="D33" s="35"/>
       <c r="E33" s="27"/>
@@ -17678,8 +17684,8 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:911" ht="36" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="74"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="42"/>
       <c r="D34" s="34"/>
       <c r="E34" s="26"/>
@@ -18590,8 +18596,8 @@
       <c r="AHZ34" s="7"/>
     </row>
     <row r="35" spans="1:911" ht="36" customHeight="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="41"/>
       <c r="D35" s="35"/>
       <c r="E35" s="27"/>
@@ -19502,8 +19508,8 @@
       <c r="AHZ35" s="7"/>
     </row>
     <row r="36" spans="1:911" ht="36" customHeight="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="41"/>
       <c r="D36" s="35"/>
       <c r="E36" s="27"/>
@@ -20414,8 +20420,8 @@
       <c r="AHZ36" s="7"/>
     </row>
     <row r="37" spans="1:911" ht="36" customHeight="1">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="41"/>
       <c r="D37" s="35"/>
       <c r="E37" s="27"/>
@@ -21326,8 +21332,8 @@
       <c r="AHZ37" s="7"/>
     </row>
     <row r="38" spans="1:911" ht="36" customHeight="1">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="41"/>
       <c r="D38" s="35"/>
       <c r="E38" s="27"/>
@@ -22238,8 +22244,8 @@
       <c r="AHZ38" s="7"/>
     </row>
     <row r="39" spans="1:911" ht="36" customHeight="1">
-      <c r="A39" s="75"/>
-      <c r="B39" s="80"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="41"/>
       <c r="D39" s="35"/>
       <c r="E39" s="27"/>
@@ -23150,8 +23156,8 @@
       <c r="AHZ39" s="7"/>
     </row>
     <row r="40" spans="1:911" ht="36" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="41"/>
       <c r="D40" s="35"/>
       <c r="E40" s="27"/>
@@ -24062,8 +24068,8 @@
       <c r="AHZ40" s="7"/>
     </row>
     <row r="41" spans="1:911" ht="36" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="27"/>
@@ -24974,8 +24980,8 @@
       <c r="AHZ41" s="7"/>
     </row>
     <row r="42" spans="1:911" ht="36" customHeight="1">
-      <c r="A42" s="79"/>
-      <c r="B42" s="81"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="28"/>
@@ -25886,8 +25892,8 @@
       <c r="AHZ42" s="7"/>
     </row>
     <row r="43" spans="1:911" ht="36" customHeight="1">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="27"/>
@@ -25906,8 +25912,8 @@
       <c r="R43"/>
     </row>
     <row r="44" spans="1:911" ht="36" customHeight="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="77"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="27"/>
@@ -26818,8 +26824,8 @@
       <c r="AHZ44" s="7"/>
     </row>
     <row r="45" spans="1:911" s="19" customFormat="1" ht="36" customHeight="1">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="27"/>
@@ -27731,8 +27737,8 @@
       <c r="AIA45"/>
     </row>
     <row r="46" spans="1:911" ht="36" customHeight="1">
-      <c r="A46" s="75"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="27"/>
@@ -28643,8 +28649,8 @@
       <c r="AHZ46" s="7"/>
     </row>
     <row r="47" spans="1:911" ht="36" customHeight="1">
-      <c r="A47" s="75"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="27"/>
@@ -28663,8 +28669,8 @@
       <c r="R47"/>
     </row>
     <row r="48" spans="1:911" ht="36" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="28"/>
@@ -28683,8 +28689,8 @@
       <c r="R48"/>
     </row>
     <row r="49" spans="1:911" ht="36" customHeight="1">
-      <c r="A49" s="75"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="27"/>
@@ -29595,8 +29601,8 @@
       <c r="AHZ49" s="7"/>
     </row>
     <row r="50" spans="1:911" ht="36" customHeight="1">
-      <c r="A50" s="74"/>
-      <c r="B50" s="77"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="27"/>
@@ -30507,8 +30513,8 @@
       <c r="AHZ50" s="7"/>
     </row>
     <row r="51" spans="1:911" ht="36" customHeight="1">
-      <c r="A51" s="74"/>
-      <c r="B51" s="77"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="75"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="27"/>
@@ -30527,8 +30533,8 @@
       <c r="R51"/>
     </row>
     <row r="52" spans="1:911" ht="36" customHeight="1">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="27"/>
@@ -35369,7 +35375,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mzzb.xlsx
+++ b/mzzb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\mzzbscore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stellatezero\Documents\Project\mzzbscore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D5E44-A1C1-4AC1-8037-080636117511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B899F-1E91-4E72-963D-27BEABD0A120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本季" sheetId="1" r:id="rId1"/>
@@ -499,10 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -709,6 +705,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -999,89 +999,91 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="34.77734375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="75" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="87" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="88" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" style="63" customWidth="1"/>
-    <col min="10" max="10" width="14" style="63" customWidth="1"/>
-    <col min="11" max="11" width="14" style="58" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="90" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="25.109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="26.109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="34.75" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="73" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="73" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="85" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" style="86" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="67" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="49" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="61" customWidth="1"/>
+    <col min="10" max="10" width="14" style="61" customWidth="1"/>
+    <col min="11" max="11" width="14" style="56" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="88" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="44" customWidth="1"/>
+    <col min="14" max="14" width="20.58203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="6" customWidth="1"/>
+    <col min="16" max="16" width="25.08203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="26.08203125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="23.08203125" style="6" customWidth="1"/>
     <col min="19" max="19" width="47.6640625" style="6" customWidth="1"/>
-    <col min="20" max="21" width="34.77734375" style="6" customWidth="1"/>
-    <col min="22" max="24" width="34.77734375" style="6" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="34.75" style="6" customWidth="1"/>
+    <col min="22" max="24" width="34.75" style="6" hidden="1" customWidth="1"/>
     <col min="25" max="26" width="9" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:913" ht="30" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99">
+        <v>20250714</v>
+      </c>
     </row>
     <row r="2" spans="1:913" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -1999,22 +2001,22 @@
       <c r="AIB2" s="2"/>
     </row>
     <row r="3" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="92">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="90">
         <f>C3*0.5+E3*0.2+G3*0.1+J3*0.2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="93">
+      <c r="M3" s="91">
         <v>1</v>
       </c>
       <c r="N3" s="16"/>
@@ -2026,19 +2028,19 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="7"/>
@@ -2050,19 +2052,19 @@
       <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="95"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -2072,19 +2074,19 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="96"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="12"/>
@@ -2092,19 +2094,19 @@
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="12"/>
@@ -3006,19 +3008,19 @@
       <c r="AIB7" s="19"/>
     </row>
     <row r="8" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="91"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="9"/>
@@ -3027,19 +3029,19 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:913" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="12"/>
@@ -3942,19 +3944,19 @@
       <c r="AIC9" s="10"/>
     </row>
     <row r="10" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="93"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="91"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="12"/>
@@ -4856,19 +4858,19 @@
       <c r="AIB10" s="19"/>
     </row>
     <row r="11" spans="1:913" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="93"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="12"/>
@@ -5771,19 +5773,19 @@
       <c r="AIC11" s="10"/>
     </row>
     <row r="12" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="93"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="11"/>
@@ -6685,19 +6687,19 @@
       <c r="AIB12" s="19"/>
     </row>
     <row r="13" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="93"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="12"/>
@@ -6706,19 +6708,19 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="8"/>
@@ -6727,19 +6729,19 @@
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="93"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="8"/>
@@ -6748,19 +6750,19 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="93"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="91"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="9"/>
@@ -7662,19 +7664,19 @@
       <c r="AIB16" s="19"/>
     </row>
     <row r="17" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="93"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="11"/>
@@ -7683,19 +7685,19 @@
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="93"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="91"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="12"/>
@@ -8597,19 +8599,19 @@
       <c r="AIB18" s="19"/>
     </row>
     <row r="19" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="93"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="91"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="9"/>
@@ -8618,19 +8620,19 @@
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="93"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="91"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="12"/>
@@ -9532,19 +9534,19 @@
       <c r="AIB20" s="19"/>
     </row>
     <row r="21" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="93"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="9"/>
@@ -9553,19 +9555,19 @@
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="12"/>
@@ -10467,19 +10469,19 @@
       <c r="AIB22" s="19"/>
     </row>
     <row r="23" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="93"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="91"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="12"/>
@@ -11381,19 +11383,19 @@
       <c r="AIB23" s="19"/>
     </row>
     <row r="24" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="93"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="9"/>
@@ -11402,19 +11404,19 @@
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="93"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="91"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="12"/>
@@ -12316,19 +12318,19 @@
       <c r="AIB25" s="19"/>
     </row>
     <row r="26" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="93"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="91"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="9"/>
@@ -12337,19 +12339,19 @@
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="93"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="91"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="12"/>
@@ -13251,19 +13253,19 @@
       <c r="AIB27" s="19"/>
     </row>
     <row r="28" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="93"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="91"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="9"/>
@@ -14165,19 +14167,19 @@
       <c r="AIB28" s="19"/>
     </row>
     <row r="29" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="93"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="91"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="12"/>
@@ -15079,19 +15081,19 @@
       <c r="AIB29" s="19"/>
     </row>
     <row r="30" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="93"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="91"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
       <c r="P30" s="12"/>
@@ -15993,19 +15995,19 @@
       <c r="AIB30" s="19"/>
     </row>
     <row r="31" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="93"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="91"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="12"/>
@@ -16907,19 +16909,19 @@
       <c r="AIB31" s="19"/>
     </row>
     <row r="32" spans="1:912" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="93"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="91"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="12"/>
@@ -17821,19 +17823,19 @@
       <c r="AIB32" s="19"/>
     </row>
     <row r="33" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="93"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
       <c r="P33" s="8"/>
@@ -17842,19 +17844,19 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="93"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="12"/>
@@ -18756,19 +18758,19 @@
       <c r="AIB34" s="19"/>
     </row>
     <row r="35" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="93"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
       <c r="P35" s="12"/>
@@ -19670,19 +19672,19 @@
       <c r="AIB35" s="19"/>
     </row>
     <row r="36" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="93"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="91"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="12"/>
@@ -20584,19 +20586,19 @@
       <c r="AIB36" s="19"/>
     </row>
     <row r="37" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="93"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="91"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="12"/>
@@ -21498,19 +21500,19 @@
       <c r="AIB37" s="19"/>
     </row>
     <row r="38" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="93"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="91"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
       <c r="P38" s="12"/>
@@ -22412,19 +22414,19 @@
       <c r="AIB38" s="19"/>
     </row>
     <row r="39" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="93"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="91"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28"/>
       <c r="P39" s="29"/>
@@ -23326,19 +23328,19 @@
       <c r="AIB39" s="19"/>
     </row>
     <row r="40" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="93"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="91"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="12"/>
@@ -24240,19 +24242,19 @@
       <c r="AIB40" s="19"/>
     </row>
     <row r="41" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="93"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="91"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="12"/>
@@ -25154,19 +25156,19 @@
       <c r="AIB41" s="19"/>
     </row>
     <row r="42" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="93"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="12"/>
@@ -26068,19 +26070,19 @@
       <c r="AIB42" s="19"/>
     </row>
     <row r="43" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="93"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="12"/>
@@ -26090,19 +26092,19 @@
       <c r="T43" s="8"/>
     </row>
     <row r="44" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="93"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="12"/>
@@ -27004,19 +27006,19 @@
       <c r="AIB44" s="19"/>
     </row>
     <row r="45" spans="1:913" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="93"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="91"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="12"/>
@@ -27919,19 +27921,19 @@
       <c r="AIC45" s="10"/>
     </row>
     <row r="46" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="93"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="91"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="12"/>
@@ -28833,19 +28835,19 @@
       <c r="AIB46" s="19"/>
     </row>
     <row r="47" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="93"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="91"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="8"/>
@@ -28855,19 +28857,19 @@
       <c r="T47" s="8"/>
     </row>
     <row r="48" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="93"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="91"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="8"/>
@@ -28877,19 +28879,19 @@
       <c r="T48" s="8"/>
     </row>
     <row r="49" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="93"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="91"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="12"/>
@@ -29791,19 +29793,19 @@
       <c r="AIB49" s="19"/>
     </row>
     <row r="50" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="93"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="91"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="12"/>
@@ -30705,19 +30707,19 @@
       <c r="AIB50" s="19"/>
     </row>
     <row r="51" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="93"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
       <c r="P51" s="8"/>
@@ -30727,19 +30729,19 @@
       <c r="T51" s="8"/>
     </row>
     <row r="52" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A52" s="35"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="93"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="91"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
@@ -30749,19 +30751,19 @@
       <c r="T52" s="8"/>
     </row>
     <row r="53" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A53" s="35"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="93"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="91"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -30771,19 +30773,19 @@
       <c r="T53" s="8"/>
     </row>
     <row r="54" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="92"/>
-      <c r="M54" s="93"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="91"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
       <c r="P54" s="12"/>
@@ -31685,19 +31687,19 @@
       <c r="AIB54" s="19"/>
     </row>
     <row r="55" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="93"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="91"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
       <c r="P55" s="12"/>
@@ -32599,19 +32601,19 @@
       <c r="AIB55" s="19"/>
     </row>
     <row r="56" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="93"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="91"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
       <c r="P56" s="12"/>
@@ -33513,19 +33515,19 @@
       <c r="AIB56" s="19"/>
     </row>
     <row r="57" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="93"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="91"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
       <c r="P57" s="12"/>
@@ -33535,19 +33537,19 @@
       <c r="T57" s="8"/>
     </row>
     <row r="58" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="93"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="91"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
@@ -33557,19 +33559,19 @@
       <c r="T58" s="8"/>
     </row>
     <row r="59" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A59" s="39"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="93"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="91"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -33579,19 +33581,19 @@
       <c r="T59" s="8"/>
     </row>
     <row r="60" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="97"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="95"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="12"/>
@@ -34493,19 +34495,19 @@
       <c r="AIB60" s="19"/>
     </row>
     <row r="61" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A61" s="41"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="97"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="92"/>
+      <c r="M61" s="95"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="12"/>
@@ -34515,19 +34517,19 @@
       <c r="T61" s="8"/>
     </row>
     <row r="62" spans="1:913" s="20" customFormat="1" ht="36" customHeight="1">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="92"/>
-      <c r="M62" s="98"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="96"/>
       <c r="N62" s="13"/>
       <c r="O62" s="8"/>
       <c r="P62" s="12"/>
@@ -35430,19 +35432,19 @@
       <c r="AIC62" s="10"/>
     </row>
     <row r="63" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A63" s="39"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="93"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="91"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="8"/>
@@ -35452,19 +35454,19 @@
       <c r="T63" s="8"/>
     </row>
     <row r="64" spans="1:913" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="92"/>
-      <c r="M64" s="93"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="91"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="8"/>
@@ -35474,19 +35476,19 @@
       <c r="T64" s="8"/>
     </row>
     <row r="65" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="93"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="91"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
@@ -35496,19 +35498,19 @@
       <c r="T65" s="8"/>
     </row>
     <row r="66" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="94"/>
-      <c r="M66" s="97"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="95"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
@@ -35518,19 +35520,19 @@
       <c r="T66" s="8"/>
     </row>
     <row r="67" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A67" s="43"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="99"/>
-      <c r="M67" s="45"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="97"/>
+      <c r="M67" s="43"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
@@ -35540,19 +35542,19 @@
       <c r="T67" s="8"/>
     </row>
     <row r="68" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A68" s="40"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="99"/>
-      <c r="M68" s="45"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="43"/>
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
@@ -35562,19 +35564,19 @@
       <c r="T68" s="8"/>
     </row>
     <row r="69" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="99"/>
-      <c r="M69" s="45"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="97"/>
+      <c r="M69" s="43"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
@@ -35584,64 +35586,64 @@
       <c r="T69" s="8"/>
     </row>
     <row r="70" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="57"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="45"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="43"/>
     </row>
     <row r="71" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="99"/>
-      <c r="M71" s="45"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="43"/>
     </row>
     <row r="72" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="69"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="45"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="97"/>
+      <c r="M72" s="43"/>
     </row>
     <row r="73" spans="1:20" s="10" customFormat="1" ht="36" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="51"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="45"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="97"/>
+      <c r="M73" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M59" xr:uid="{00000000-0009-0000-0000-000000000000}">
